--- a/data/raw/election/voters-age-sex-education/2023/Kocaeli.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kocaeli.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:49:40-13285564926" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="41">
   <si>
     <t>Kocaeli</t>
   </si>
@@ -137,6 +136,12 @@
   </si>
   <si>
     <t>Körfez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -684,16 +689,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1018,10 +1032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317:A318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,52 +1051,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,8 +1153,8 @@
       <c r="G6" s="4">
         <v>827</v>
       </c>
-      <c r="H6" s="4">
-        <v>3.6070000000000002</v>
+      <c r="H6" s="5">
+        <v>3607</v>
       </c>
       <c r="I6" s="4">
         <v>805</v>
@@ -1154,8 +1168,8 @@
       <c r="L6" s="4">
         <v>66</v>
       </c>
-      <c r="M6" s="5">
-        <v>5.3330000000000002</v>
+      <c r="M6" s="6">
+        <v>5333</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,11 +1192,11 @@
       <c r="G7" s="4">
         <v>724</v>
       </c>
-      <c r="H7" s="4">
-        <v>3.468</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.1160000000000001</v>
+      <c r="H7" s="5">
+        <v>3468</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1116</v>
       </c>
       <c r="J7" s="4">
         <v>17</v>
@@ -1193,8 +1207,8 @@
       <c r="L7" s="4">
         <v>43</v>
       </c>
-      <c r="M7" s="5">
-        <v>5.4020000000000001</v>
+      <c r="M7" s="6">
+        <v>5402</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,11 +1233,11 @@
       <c r="G8" s="4">
         <v>644</v>
       </c>
-      <c r="H8" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.7689999999999999</v>
+      <c r="H8" s="5">
+        <v>1570</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1769</v>
       </c>
       <c r="J8" s="4">
         <v>119</v>
@@ -1234,8 +1248,8 @@
       <c r="L8" s="4">
         <v>45</v>
       </c>
-      <c r="M8" s="5">
-        <v>4.1849999999999996</v>
+      <c r="M8" s="6">
+        <v>4185</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,11 +1272,11 @@
       <c r="G9" s="4">
         <v>685</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.145</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.1970000000000001</v>
+      <c r="H9" s="5">
+        <v>1145</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2197</v>
       </c>
       <c r="J9" s="4">
         <v>197</v>
@@ -1273,8 +1287,8 @@
       <c r="L9" s="4">
         <v>59</v>
       </c>
-      <c r="M9" s="5">
-        <v>4.3970000000000002</v>
+      <c r="M9" s="6">
+        <v>4397</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,11 +1313,11 @@
       <c r="G10" s="4">
         <v>355</v>
       </c>
-      <c r="H10" s="4">
-        <v>1.464</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.9570000000000001</v>
+      <c r="H10" s="5">
+        <v>1464</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1957</v>
       </c>
       <c r="J10" s="4">
         <v>267</v>
@@ -1314,8 +1328,8 @@
       <c r="L10" s="4">
         <v>47</v>
       </c>
-      <c r="M10" s="5">
-        <v>4.4610000000000003</v>
+      <c r="M10" s="6">
+        <v>4461</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1338,11 +1352,11 @@
       <c r="G11" s="4">
         <v>388</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.2410000000000001</v>
+      <c r="H11" s="5">
+        <v>1235</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2241</v>
       </c>
       <c r="J11" s="4">
         <v>310</v>
@@ -1353,8 +1367,8 @@
       <c r="L11" s="4">
         <v>42</v>
       </c>
-      <c r="M11" s="5">
-        <v>4.8600000000000003</v>
+      <c r="M11" s="6">
+        <v>4860</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1379,11 +1393,11 @@
       <c r="G12" s="4">
         <v>410</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.647</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.7749999999999999</v>
+      <c r="H12" s="5">
+        <v>1647</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1775</v>
       </c>
       <c r="J12" s="4">
         <v>378</v>
@@ -1394,8 +1408,8 @@
       <c r="L12" s="4">
         <v>43</v>
       </c>
-      <c r="M12" s="5">
-        <v>4.8529999999999998</v>
+      <c r="M12" s="6">
+        <v>4853</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1418,11 +1432,11 @@
       <c r="G13" s="4">
         <v>462</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.772</v>
+      <c r="H13" s="5">
+        <v>1382</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1772</v>
       </c>
       <c r="J13" s="4">
         <v>334</v>
@@ -1433,8 +1447,8 @@
       <c r="L13" s="4">
         <v>59</v>
       </c>
-      <c r="M13" s="5">
-        <v>4.9729999999999999</v>
+      <c r="M13" s="6">
+        <v>4973</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1459,11 +1473,11 @@
       <c r="G14" s="4">
         <v>618</v>
       </c>
-      <c r="H14" s="4">
-        <v>1.7769999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.5960000000000001</v>
+      <c r="H14" s="5">
+        <v>1777</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1596</v>
       </c>
       <c r="J14" s="4">
         <v>408</v>
@@ -1474,8 +1488,8 @@
       <c r="L14" s="4">
         <v>51</v>
       </c>
-      <c r="M14" s="5">
-        <v>5.2009999999999996</v>
+      <c r="M14" s="6">
+        <v>5201</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1498,11 +1512,11 @@
       <c r="G15" s="4">
         <v>734</v>
       </c>
-      <c r="H15" s="4">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.363</v>
+      <c r="H15" s="5">
+        <v>1463</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1363</v>
       </c>
       <c r="J15" s="4">
         <v>301</v>
@@ -1513,8 +1527,8 @@
       <c r="L15" s="4">
         <v>46</v>
       </c>
-      <c r="M15" s="5">
-        <v>5.0510000000000002</v>
+      <c r="M15" s="6">
+        <v>5051</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1539,11 +1553,11 @@
       <c r="G16" s="4">
         <v>571</v>
       </c>
-      <c r="H16" s="4">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.103</v>
+      <c r="H16" s="5">
+        <v>1487</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1103</v>
       </c>
       <c r="J16" s="4">
         <v>261</v>
@@ -1554,8 +1568,8 @@
       <c r="L16" s="4">
         <v>42</v>
       </c>
-      <c r="M16" s="5">
-        <v>4.306</v>
+      <c r="M16" s="6">
+        <v>4306</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1578,8 +1592,8 @@
       <c r="G17" s="4">
         <v>685</v>
       </c>
-      <c r="H17" s="4">
-        <v>1.149</v>
+      <c r="H17" s="5">
+        <v>1149</v>
       </c>
       <c r="I17" s="4">
         <v>804</v>
@@ -1593,8 +1607,8 @@
       <c r="L17" s="4">
         <v>46</v>
       </c>
-      <c r="M17" s="5">
-        <v>4.1029999999999998</v>
+      <c r="M17" s="6">
+        <v>4103</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1619,8 +1633,8 @@
       <c r="G18" s="4">
         <v>570</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.0469999999999999</v>
+      <c r="H18" s="5">
+        <v>1047</v>
       </c>
       <c r="I18" s="4">
         <v>796</v>
@@ -1634,8 +1648,8 @@
       <c r="L18" s="4">
         <v>30</v>
       </c>
-      <c r="M18" s="5">
-        <v>3.355</v>
+      <c r="M18" s="6">
+        <v>3355</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,8 +1687,8 @@
       <c r="L19" s="4">
         <v>35</v>
       </c>
-      <c r="M19" s="5">
-        <v>3.387</v>
+      <c r="M19" s="6">
+        <v>3387</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1714,8 +1728,8 @@
       <c r="L20" s="4">
         <v>54</v>
       </c>
-      <c r="M20" s="5">
-        <v>2.9119999999999999</v>
+      <c r="M20" s="6">
+        <v>2912</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1729,8 +1743,8 @@
       <c r="D21" s="4">
         <v>101</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E21" s="5">
+        <v>1007</v>
       </c>
       <c r="F21" s="4">
         <v>285</v>
@@ -1753,8 +1767,8 @@
       <c r="L21" s="4">
         <v>51</v>
       </c>
-      <c r="M21" s="5">
-        <v>2.8140000000000001</v>
+      <c r="M21" s="6">
+        <v>2814</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,8 +1808,8 @@
       <c r="L22" s="4">
         <v>41</v>
       </c>
-      <c r="M22" s="5">
-        <v>2.286</v>
+      <c r="M22" s="6">
+        <v>2286</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1809,8 +1823,8 @@
       <c r="D23" s="4">
         <v>167</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.004</v>
+      <c r="E23" s="5">
+        <v>1004</v>
       </c>
       <c r="F23" s="4">
         <v>162</v>
@@ -1833,8 +1847,8 @@
       <c r="L23" s="4">
         <v>33</v>
       </c>
-      <c r="M23" s="5">
-        <v>2.2749999999999999</v>
+      <c r="M23" s="6">
+        <v>2275</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1874,8 +1888,8 @@
       <c r="L24" s="4">
         <v>37</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.766</v>
+      <c r="M24" s="6">
+        <v>1766</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1913,8 +1927,8 @@
       <c r="L25" s="4">
         <v>25</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.8029999999999999</v>
+      <c r="M25" s="6">
+        <v>1803</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1954,8 +1968,8 @@
       <c r="L26" s="4">
         <v>20</v>
       </c>
-      <c r="M26" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M26" s="6">
+        <v>1096</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1993,8 +2007,8 @@
       <c r="L27" s="4">
         <v>14</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.2030000000000001</v>
+      <c r="M27" s="6">
+        <v>1203</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2034,8 +2048,8 @@
       <c r="L28" s="4">
         <v>22</v>
       </c>
-      <c r="M28" s="5">
-        <v>1.17</v>
+      <c r="M28" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2073,54 +2087,54 @@
       <c r="L29" s="4">
         <v>22</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.5940000000000001</v>
+      <c r="M29" s="6">
+        <v>1594</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.196</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1.5269999999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10.787000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>5.45</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10.787000000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <v>26.751999999999999</v>
-      </c>
-      <c r="I30" s="5">
-        <v>21.643000000000001</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3.2090000000000001</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>1196</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1527</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10787</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5450</v>
+      </c>
+      <c r="G30" s="6">
+        <v>10787</v>
+      </c>
+      <c r="H30" s="6">
+        <v>26752</v>
+      </c>
+      <c r="I30" s="6">
+        <v>21643</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3209</v>
+      </c>
+      <c r="K30" s="8">
         <v>462</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>973</v>
       </c>
-      <c r="M30" s="5">
-        <v>82.786000000000001</v>
+      <c r="M30" s="6">
+        <v>82786</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2174,14 +2188,14 @@
       <c r="F32" s="4">
         <v>3</v>
       </c>
-      <c r="G32" s="4">
-        <v>2.133</v>
-      </c>
-      <c r="H32" s="4">
-        <v>4.915</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.014</v>
+      <c r="G32" s="5">
+        <v>2133</v>
+      </c>
+      <c r="H32" s="5">
+        <v>4915</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1014</v>
       </c>
       <c r="J32" s="4">
         <v>8</v>
@@ -2192,8 +2206,8 @@
       <c r="L32" s="4">
         <v>68</v>
       </c>
-      <c r="M32" s="5">
-        <v>8.1829999999999998</v>
+      <c r="M32" s="6">
+        <v>8183</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2213,14 +2227,14 @@
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.571</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.6680000000000001</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.5580000000000001</v>
+      <c r="G33" s="5">
+        <v>1571</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4668</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1558</v>
       </c>
       <c r="J33" s="4">
         <v>9</v>
@@ -2231,8 +2245,8 @@
       <c r="L33" s="4">
         <v>41</v>
       </c>
-      <c r="M33" s="5">
-        <v>7.9409999999999998</v>
+      <c r="M33" s="6">
+        <v>7941</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,14 +2268,14 @@
       <c r="F34" s="4">
         <v>60</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.631</v>
-      </c>
-      <c r="H34" s="4">
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2.2469999999999999</v>
+      <c r="G34" s="5">
+        <v>1631</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2221</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2247</v>
       </c>
       <c r="J34" s="4">
         <v>97</v>
@@ -2272,8 +2286,8 @@
       <c r="L34" s="4">
         <v>45</v>
       </c>
-      <c r="M34" s="5">
-        <v>6.3840000000000003</v>
+      <c r="M34" s="6">
+        <v>6384</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,14 +2307,14 @@
       <c r="F35" s="4">
         <v>79</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.458</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.7810000000000001</v>
+      <c r="G35" s="5">
+        <v>1458</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1745</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2781</v>
       </c>
       <c r="J35" s="4">
         <v>150</v>
@@ -2311,8 +2325,8 @@
       <c r="L35" s="4">
         <v>62</v>
       </c>
-      <c r="M35" s="5">
-        <v>6.5049999999999999</v>
+      <c r="M35" s="6">
+        <v>6505</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2337,11 +2351,11 @@
       <c r="G36" s="4">
         <v>854</v>
       </c>
-      <c r="H36" s="4">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.1139999999999999</v>
+      <c r="H36" s="5">
+        <v>2466</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2114</v>
       </c>
       <c r="J36" s="4">
         <v>206</v>
@@ -2352,8 +2366,8 @@
       <c r="L36" s="4">
         <v>62</v>
       </c>
-      <c r="M36" s="5">
-        <v>6.6340000000000003</v>
+      <c r="M36" s="6">
+        <v>6634</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2370,17 +2384,17 @@
       <c r="E37" s="4">
         <v>157</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.167</v>
+      <c r="F37" s="5">
+        <v>1167</v>
       </c>
       <c r="G37" s="4">
         <v>799</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2.294</v>
+      <c r="H37" s="5">
+        <v>1963</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2294</v>
       </c>
       <c r="J37" s="4">
         <v>227</v>
@@ -2391,8 +2405,8 @@
       <c r="L37" s="4">
         <v>78</v>
       </c>
-      <c r="M37" s="5">
-        <v>6.9039999999999999</v>
+      <c r="M37" s="6">
+        <v>6904</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2411,17 +2425,17 @@
       <c r="E38" s="4">
         <v>361</v>
       </c>
-      <c r="F38" s="4">
-        <v>1.0860000000000001</v>
+      <c r="F38" s="5">
+        <v>1086</v>
       </c>
       <c r="G38" s="4">
         <v>785</v>
       </c>
-      <c r="H38" s="4">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.8320000000000001</v>
+      <c r="H38" s="5">
+        <v>2793</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1832</v>
       </c>
       <c r="J38" s="4">
         <v>215</v>
@@ -2432,8 +2446,8 @@
       <c r="L38" s="4">
         <v>63</v>
       </c>
-      <c r="M38" s="5">
-        <v>7.1870000000000003</v>
+      <c r="M38" s="6">
+        <v>7187</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2447,20 +2461,20 @@
       <c r="D39" s="4">
         <v>100</v>
       </c>
-      <c r="E39" s="4">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.079</v>
+      <c r="E39" s="5">
+        <v>1156</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1079</v>
       </c>
       <c r="G39" s="4">
         <v>882</v>
       </c>
-      <c r="H39" s="4">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.5029999999999999</v>
+      <c r="H39" s="5">
+        <v>2062</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1503</v>
       </c>
       <c r="J39" s="4">
         <v>167</v>
@@ -2471,8 +2485,8 @@
       <c r="L39" s="4">
         <v>54</v>
       </c>
-      <c r="M39" s="5">
-        <v>7.0359999999999996</v>
+      <c r="M39" s="6">
+        <v>7036</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2491,17 +2505,17 @@
       <c r="E40" s="4">
         <v>603</v>
       </c>
-      <c r="F40" s="4">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="H40" s="4">
-        <v>2.8370000000000002</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.149</v>
+      <c r="F40" s="5">
+        <v>1053</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1213</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2837</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1149</v>
       </c>
       <c r="J40" s="4">
         <v>186</v>
@@ -2512,8 +2526,8 @@
       <c r="L40" s="4">
         <v>46</v>
       </c>
-      <c r="M40" s="5">
-        <v>7.1369999999999996</v>
+      <c r="M40" s="6">
+        <v>7137</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2527,17 +2541,17 @@
       <c r="D41" s="4">
         <v>67</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.7709999999999999</v>
+      <c r="E41" s="5">
+        <v>1771</v>
       </c>
       <c r="F41" s="4">
         <v>879</v>
       </c>
-      <c r="G41" s="4">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.746</v>
+      <c r="G41" s="5">
+        <v>1168</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1746</v>
       </c>
       <c r="I41" s="4">
         <v>863</v>
@@ -2551,8 +2565,8 @@
       <c r="L41" s="4">
         <v>49</v>
       </c>
-      <c r="M41" s="5">
-        <v>6.7169999999999996</v>
+      <c r="M41" s="6">
+        <v>6717</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2571,14 +2585,14 @@
       <c r="E42" s="4">
         <v>741</v>
       </c>
-      <c r="F42" s="4">
-        <v>1.0649999999999999</v>
+      <c r="F42" s="5">
+        <v>1065</v>
       </c>
       <c r="G42" s="4">
         <v>943</v>
       </c>
-      <c r="H42" s="4">
-        <v>2.0619999999999998</v>
+      <c r="H42" s="5">
+        <v>2062</v>
       </c>
       <c r="I42" s="4">
         <v>686</v>
@@ -2592,8 +2606,8 @@
       <c r="L42" s="4">
         <v>34</v>
       </c>
-      <c r="M42" s="5">
-        <v>5.6879999999999997</v>
+      <c r="M42" s="6">
+        <v>5688</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2607,8 +2621,8 @@
       <c r="D43" s="4">
         <v>53</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.698</v>
+      <c r="E43" s="5">
+        <v>1698</v>
       </c>
       <c r="F43" s="4">
         <v>800</v>
@@ -2616,8 +2630,8 @@
       <c r="G43" s="4">
         <v>873</v>
       </c>
-      <c r="H43" s="4">
-        <v>1.052</v>
+      <c r="H43" s="5">
+        <v>1052</v>
       </c>
       <c r="I43" s="4">
         <v>420</v>
@@ -2631,8 +2645,8 @@
       <c r="L43" s="4">
         <v>45</v>
       </c>
-      <c r="M43" s="5">
-        <v>5.04</v>
+      <c r="M43" s="6">
+        <v>5040</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2651,14 +2665,14 @@
       <c r="E44" s="4">
         <v>710</v>
       </c>
-      <c r="F44" s="4">
-        <v>1.0389999999999999</v>
+      <c r="F44" s="5">
+        <v>1039</v>
       </c>
       <c r="G44" s="4">
         <v>924</v>
       </c>
-      <c r="H44" s="4">
-        <v>1.1619999999999999</v>
+      <c r="H44" s="5">
+        <v>1162</v>
       </c>
       <c r="I44" s="4">
         <v>410</v>
@@ -2672,8 +2686,8 @@
       <c r="L44" s="4">
         <v>31</v>
       </c>
-      <c r="M44" s="5">
-        <v>4.3639999999999999</v>
+      <c r="M44" s="6">
+        <v>4364</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2687,8 +2701,8 @@
       <c r="D45" s="4">
         <v>109</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.635</v>
+      <c r="E45" s="5">
+        <v>1635</v>
       </c>
       <c r="F45" s="4">
         <v>678</v>
@@ -2711,8 +2725,8 @@
       <c r="L45" s="4">
         <v>37</v>
       </c>
-      <c r="M45" s="5">
-        <v>3.9249999999999998</v>
+      <c r="M45" s="6">
+        <v>3925</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2752,8 +2766,8 @@
       <c r="L46" s="4">
         <v>35</v>
       </c>
-      <c r="M46" s="5">
-        <v>3.323</v>
+      <c r="M46" s="6">
+        <v>3323</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2767,8 +2781,8 @@
       <c r="D47" s="4">
         <v>164</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.4890000000000001</v>
+      <c r="E47" s="5">
+        <v>1489</v>
       </c>
       <c r="F47" s="4">
         <v>395</v>
@@ -2791,8 +2805,8 @@
       <c r="L47" s="4">
         <v>25</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.9769999999999999</v>
+      <c r="M47" s="6">
+        <v>2977</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2832,8 +2846,8 @@
       <c r="L48" s="4">
         <v>26</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.2229999999999999</v>
+      <c r="M48" s="6">
+        <v>2223</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2847,8 +2861,8 @@
       <c r="D49" s="4">
         <v>192</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.1399999999999999</v>
+      <c r="E49" s="5">
+        <v>1140</v>
       </c>
       <c r="F49" s="4">
         <v>181</v>
@@ -2871,8 +2885,8 @@
       <c r="L49" s="4">
         <v>32</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.149</v>
+      <c r="M49" s="6">
+        <v>2149</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2912,8 +2926,8 @@
       <c r="L50" s="4">
         <v>20</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.405</v>
+      <c r="M50" s="6">
+        <v>1405</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2951,8 +2965,8 @@
       <c r="L51" s="4">
         <v>25</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.571</v>
+      <c r="M51" s="6">
+        <v>1571</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2992,7 +3006,7 @@
       <c r="L52" s="4">
         <v>12</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>771</v>
       </c>
     </row>
@@ -3031,7 +3045,7 @@
       <c r="L53" s="4">
         <v>20</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>997</v>
       </c>
     </row>
@@ -3072,7 +3086,7 @@
       <c r="L54" s="4">
         <v>18</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>740</v>
       </c>
     </row>
@@ -3111,54 +3125,54 @@
       <c r="L55" s="4">
         <v>35</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.276</v>
+      <c r="M55" s="6">
+        <v>1276</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.605</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>16.507999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>11.901</v>
-      </c>
-      <c r="G56" s="5">
-        <v>17.96</v>
-      </c>
-      <c r="H56" s="5">
-        <v>34.585999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>19.577000000000002</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.69</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>1605</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2128</v>
+      </c>
+      <c r="E56" s="6">
+        <v>16508</v>
+      </c>
+      <c r="F56" s="6">
+        <v>11901</v>
+      </c>
+      <c r="G56" s="6">
+        <v>17960</v>
+      </c>
+      <c r="H56" s="6">
+        <v>34586</v>
+      </c>
+      <c r="I56" s="6">
+        <v>19577</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1690</v>
+      </c>
+      <c r="K56" s="8">
         <v>159</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>963</v>
       </c>
-      <c r="M56" s="5">
-        <v>107.077</v>
+      <c r="M56" s="6">
+        <v>107077</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3212,14 +3226,14 @@
       <c r="F58" s="4">
         <v>4</v>
       </c>
-      <c r="G58" s="4">
-        <v>2.839</v>
-      </c>
-      <c r="H58" s="4">
-        <v>7.4420000000000002</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1.649</v>
+      <c r="G58" s="5">
+        <v>2839</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7442</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1649</v>
       </c>
       <c r="J58" s="4">
         <v>4</v>
@@ -3230,8 +3244,8 @@
       <c r="L58" s="4">
         <v>120</v>
       </c>
-      <c r="M58" s="5">
-        <v>12.141</v>
+      <c r="M58" s="6">
+        <v>12141</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3251,14 +3265,14 @@
       <c r="F59" s="4">
         <v>3</v>
       </c>
-      <c r="G59" s="4">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="H59" s="4">
-        <v>7.1479999999999997</v>
-      </c>
-      <c r="I59" s="4">
-        <v>2.4430000000000001</v>
+      <c r="G59" s="5">
+        <v>2042</v>
+      </c>
+      <c r="H59" s="5">
+        <v>7148</v>
+      </c>
+      <c r="I59" s="5">
+        <v>2443</v>
       </c>
       <c r="J59" s="4">
         <v>14</v>
@@ -3269,8 +3283,8 @@
       <c r="L59" s="4">
         <v>59</v>
       </c>
-      <c r="M59" s="5">
-        <v>11.832000000000001</v>
+      <c r="M59" s="6">
+        <v>11832</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3292,14 +3306,14 @@
       <c r="F60" s="4">
         <v>65</v>
       </c>
-      <c r="G60" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="H60" s="4">
-        <v>3.1440000000000001</v>
-      </c>
-      <c r="I60" s="4">
-        <v>3.6579999999999999</v>
+      <c r="G60" s="5">
+        <v>2064</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3144</v>
+      </c>
+      <c r="I60" s="5">
+        <v>3658</v>
       </c>
       <c r="J60" s="4">
         <v>177</v>
@@ -3310,8 +3324,8 @@
       <c r="L60" s="4">
         <v>83</v>
       </c>
-      <c r="M60" s="5">
-        <v>9.2970000000000006</v>
+      <c r="M60" s="6">
+        <v>9297</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3331,14 +3345,14 @@
       <c r="F61" s="4">
         <v>89</v>
       </c>
-      <c r="G61" s="4">
-        <v>1.925</v>
-      </c>
-      <c r="H61" s="4">
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="I61" s="4">
-        <v>4.2240000000000002</v>
+      <c r="G61" s="5">
+        <v>1925</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2437</v>
+      </c>
+      <c r="I61" s="5">
+        <v>4224</v>
       </c>
       <c r="J61" s="4">
         <v>299</v>
@@ -3349,8 +3363,8 @@
       <c r="L61" s="4">
         <v>96</v>
       </c>
-      <c r="M61" s="5">
-        <v>9.3870000000000005</v>
+      <c r="M61" s="6">
+        <v>9387</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3372,14 +3386,14 @@
       <c r="F62" s="4">
         <v>984</v>
       </c>
-      <c r="G62" s="4">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="H62" s="4">
-        <v>3.536</v>
-      </c>
-      <c r="I62" s="4">
-        <v>3.4649999999999999</v>
+      <c r="G62" s="5">
+        <v>1065</v>
+      </c>
+      <c r="H62" s="5">
+        <v>3536</v>
+      </c>
+      <c r="I62" s="5">
+        <v>3465</v>
       </c>
       <c r="J62" s="4">
         <v>413</v>
@@ -3390,8 +3404,8 @@
       <c r="L62" s="4">
         <v>79</v>
       </c>
-      <c r="M62" s="5">
-        <v>9.7349999999999994</v>
+      <c r="M62" s="6">
+        <v>9735</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3408,17 +3422,17 @@
       <c r="E63" s="4">
         <v>222</v>
       </c>
-      <c r="F63" s="4">
-        <v>1.4490000000000001</v>
+      <c r="F63" s="5">
+        <v>1449</v>
       </c>
       <c r="G63" s="4">
         <v>909</v>
       </c>
-      <c r="H63" s="4">
-        <v>2.6539999999999999</v>
-      </c>
-      <c r="I63" s="4">
-        <v>3.6589999999999998</v>
+      <c r="H63" s="5">
+        <v>2654</v>
+      </c>
+      <c r="I63" s="5">
+        <v>3659</v>
       </c>
       <c r="J63" s="4">
         <v>395</v>
@@ -3429,8 +3443,8 @@
       <c r="L63" s="4">
         <v>117</v>
       </c>
-      <c r="M63" s="5">
-        <v>9.7260000000000009</v>
+      <c r="M63" s="6">
+        <v>9726</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3449,17 +3463,17 @@
       <c r="E64" s="4">
         <v>423</v>
       </c>
-      <c r="F64" s="4">
-        <v>1.244</v>
+      <c r="F64" s="5">
+        <v>1244</v>
       </c>
       <c r="G64" s="4">
         <v>937</v>
       </c>
-      <c r="H64" s="4">
-        <v>3.887</v>
-      </c>
-      <c r="I64" s="4">
-        <v>2.81</v>
+      <c r="H64" s="5">
+        <v>3887</v>
+      </c>
+      <c r="I64" s="5">
+        <v>2810</v>
       </c>
       <c r="J64" s="4">
         <v>445</v>
@@ -3470,8 +3484,8 @@
       <c r="L64" s="4">
         <v>90</v>
       </c>
-      <c r="M64" s="5">
-        <v>9.9480000000000004</v>
+      <c r="M64" s="6">
+        <v>9948</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3485,20 +3499,20 @@
       <c r="D65" s="4">
         <v>177</v>
       </c>
-      <c r="E65" s="4">
-        <v>1.601</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1.319</v>
-      </c>
-      <c r="G65" s="4">
-        <v>1.097</v>
-      </c>
-      <c r="H65" s="4">
-        <v>2.8730000000000002</v>
-      </c>
-      <c r="I65" s="4">
-        <v>2.3969999999999998</v>
+      <c r="E65" s="5">
+        <v>1601</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1319</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1097</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2873</v>
+      </c>
+      <c r="I65" s="5">
+        <v>2397</v>
       </c>
       <c r="J65" s="4">
         <v>383</v>
@@ -3509,8 +3523,8 @@
       <c r="L65" s="4">
         <v>78</v>
       </c>
-      <c r="M65" s="5">
-        <v>10.006</v>
+      <c r="M65" s="6">
+        <v>10006</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3529,17 +3543,17 @@
       <c r="E66" s="4">
         <v>848</v>
       </c>
-      <c r="F66" s="4">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="G66" s="4">
-        <v>1.609</v>
-      </c>
-      <c r="H66" s="4">
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="I66" s="4">
-        <v>1.98</v>
+      <c r="F66" s="5">
+        <v>1217</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1609</v>
+      </c>
+      <c r="H66" s="5">
+        <v>4182</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1980</v>
       </c>
       <c r="J66" s="4">
         <v>358</v>
@@ -3550,8 +3564,8 @@
       <c r="L66" s="4">
         <v>78</v>
       </c>
-      <c r="M66" s="5">
-        <v>10.343</v>
+      <c r="M66" s="6">
+        <v>10343</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3565,20 +3579,20 @@
       <c r="D67" s="4">
         <v>127</v>
       </c>
-      <c r="E67" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1.5489999999999999</v>
-      </c>
-      <c r="H67" s="4">
-        <v>2.669</v>
-      </c>
-      <c r="I67" s="4">
-        <v>1.528</v>
+      <c r="E67" s="5">
+        <v>2430</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1015</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1549</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2669</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1528</v>
       </c>
       <c r="J67" s="4">
         <v>229</v>
@@ -3589,8 +3603,8 @@
       <c r="L67" s="4">
         <v>84</v>
       </c>
-      <c r="M67" s="5">
-        <v>9.7240000000000002</v>
+      <c r="M67" s="6">
+        <v>9724</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3609,17 +3623,17 @@
       <c r="E68" s="4">
         <v>959</v>
       </c>
-      <c r="F68" s="4">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="G68" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="H68" s="4">
-        <v>3.137</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1.25</v>
+      <c r="F68" s="5">
+        <v>1382</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1370</v>
+      </c>
+      <c r="H68" s="5">
+        <v>3137</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1250</v>
       </c>
       <c r="J68" s="4">
         <v>194</v>
@@ -3630,8 +3644,8 @@
       <c r="L68" s="4">
         <v>59</v>
       </c>
-      <c r="M68" s="5">
-        <v>8.4350000000000005</v>
+      <c r="M68" s="6">
+        <v>8435</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3645,17 +3659,17 @@
       <c r="D69" s="4">
         <v>105</v>
       </c>
-      <c r="E69" s="4">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="G69" s="4">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="H69" s="4">
-        <v>1.734</v>
+      <c r="E69" s="5">
+        <v>2495</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1037</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1317</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1734</v>
       </c>
       <c r="I69" s="4">
         <v>795</v>
@@ -3669,8 +3683,8 @@
       <c r="L69" s="4">
         <v>74</v>
       </c>
-      <c r="M69" s="5">
-        <v>7.7690000000000001</v>
+      <c r="M69" s="6">
+        <v>7769</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3689,14 +3703,14 @@
       <c r="E70" s="4">
         <v>950</v>
       </c>
-      <c r="F70" s="4">
-        <v>1.321</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="H70" s="4">
-        <v>2.0190000000000001</v>
+      <c r="F70" s="5">
+        <v>1321</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1290</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2019</v>
       </c>
       <c r="I70" s="4">
         <v>749</v>
@@ -3710,8 +3724,8 @@
       <c r="L70" s="4">
         <v>66</v>
       </c>
-      <c r="M70" s="5">
-        <v>6.5709999999999997</v>
+      <c r="M70" s="6">
+        <v>6571</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3725,17 +3739,17 @@
       <c r="D71" s="4">
         <v>163</v>
       </c>
-      <c r="E71" s="4">
-        <v>2.3650000000000002</v>
+      <c r="E71" s="5">
+        <v>2365</v>
       </c>
       <c r="F71" s="4">
         <v>866</v>
       </c>
-      <c r="G71" s="4">
-        <v>1.077</v>
-      </c>
-      <c r="H71" s="4">
-        <v>1.071</v>
+      <c r="G71" s="5">
+        <v>1077</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1071</v>
       </c>
       <c r="I71" s="4">
         <v>386</v>
@@ -3749,8 +3763,8 @@
       <c r="L71" s="4">
         <v>76</v>
       </c>
-      <c r="M71" s="5">
-        <v>6.181</v>
+      <c r="M71" s="6">
+        <v>6181</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3766,17 +3780,17 @@
       <c r="D72" s="4">
         <v>20</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="F72" s="4">
-        <v>1.087</v>
-      </c>
-      <c r="G72" s="4">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="H72" s="4">
-        <v>1.429</v>
+      <c r="E72" s="5">
+        <v>1096</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1087</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1096</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1429</v>
       </c>
       <c r="I72" s="4">
         <v>499</v>
@@ -3790,8 +3804,8 @@
       <c r="L72" s="4">
         <v>59</v>
       </c>
-      <c r="M72" s="5">
-        <v>5.4080000000000004</v>
+      <c r="M72" s="6">
+        <v>5408</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,8 +3819,8 @@
       <c r="D73" s="4">
         <v>264</v>
       </c>
-      <c r="E73" s="4">
-        <v>2.37</v>
+      <c r="E73" s="5">
+        <v>2370</v>
       </c>
       <c r="F73" s="4">
         <v>551</v>
@@ -3829,8 +3843,8 @@
       <c r="L73" s="4">
         <v>58</v>
       </c>
-      <c r="M73" s="5">
-        <v>5.0119999999999996</v>
+      <c r="M73" s="6">
+        <v>5012</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,8 +3860,8 @@
       <c r="D74" s="4">
         <v>50</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.179</v>
+      <c r="E74" s="5">
+        <v>1179</v>
       </c>
       <c r="F74" s="4">
         <v>639</v>
@@ -3870,8 +3884,8 @@
       <c r="L74" s="4">
         <v>60</v>
       </c>
-      <c r="M74" s="5">
-        <v>3.9239999999999999</v>
+      <c r="M74" s="6">
+        <v>3924</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3885,8 +3899,8 @@
       <c r="D75" s="4">
         <v>355</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.988</v>
+      <c r="E75" s="5">
+        <v>1988</v>
       </c>
       <c r="F75" s="4">
         <v>244</v>
@@ -3909,8 +3923,8 @@
       <c r="L75" s="4">
         <v>63</v>
       </c>
-      <c r="M75" s="5">
-        <v>3.86</v>
+      <c r="M75" s="6">
+        <v>3860</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3926,8 +3940,8 @@
       <c r="D76" s="4">
         <v>77</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.1479999999999999</v>
+      <c r="E76" s="5">
+        <v>1148</v>
       </c>
       <c r="F76" s="4">
         <v>271</v>
@@ -3950,8 +3964,8 @@
       <c r="L76" s="4">
         <v>55</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.742</v>
+      <c r="M76" s="6">
+        <v>2742</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3965,8 +3979,8 @@
       <c r="D77" s="4">
         <v>401</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.57</v>
+      <c r="E77" s="5">
+        <v>1570</v>
       </c>
       <c r="F77" s="4">
         <v>96</v>
@@ -3989,8 +4003,8 @@
       <c r="L77" s="4">
         <v>60</v>
       </c>
-      <c r="M77" s="5">
-        <v>3.04</v>
+      <c r="M77" s="6">
+        <v>3040</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4030,8 +4044,8 @@
       <c r="L78" s="4">
         <v>30</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.7709999999999999</v>
+      <c r="M78" s="6">
+        <v>1771</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4069,8 +4083,8 @@
       <c r="L79" s="4">
         <v>37</v>
       </c>
-      <c r="M79" s="5">
-        <v>2.0299999999999998</v>
+      <c r="M79" s="6">
+        <v>2030</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4110,8 +4124,8 @@
       <c r="L80" s="4">
         <v>58</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.8380000000000001</v>
+      <c r="M80" s="6">
+        <v>1838</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4119,8 +4133,8 @@
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="4">
-        <v>1.0089999999999999</v>
+      <c r="C81" s="5">
+        <v>1009</v>
       </c>
       <c r="D81" s="4">
         <v>440</v>
@@ -4149,54 +4163,54 @@
       <c r="L81" s="4">
         <v>84</v>
       </c>
-      <c r="M81" s="5">
-        <v>2.6659999999999999</v>
+      <c r="M81" s="6">
+        <v>2666</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.5139999999999998</v>
-      </c>
-      <c r="E82" s="5">
-        <v>25.917999999999999</v>
-      </c>
-      <c r="F82" s="5">
-        <v>15.02</v>
-      </c>
-      <c r="G82" s="5">
-        <v>24.873999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>52.701000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>32.792000000000002</v>
-      </c>
-      <c r="J82" s="5">
-        <v>3.42</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
+        <v>3096</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3514</v>
+      </c>
+      <c r="E82" s="6">
+        <v>25918</v>
+      </c>
+      <c r="F82" s="6">
+        <v>15020</v>
+      </c>
+      <c r="G82" s="6">
+        <v>24874</v>
+      </c>
+      <c r="H82" s="6">
+        <v>52701</v>
+      </c>
+      <c r="I82" s="6">
+        <v>32792</v>
+      </c>
+      <c r="J82" s="6">
+        <v>3420</v>
+      </c>
+      <c r="K82" s="8">
         <v>328</v>
       </c>
-      <c r="L82" s="5">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="M82" s="5">
-        <v>163.386</v>
+      <c r="L82" s="6">
+        <v>1723</v>
+      </c>
+      <c r="M82" s="6">
+        <v>163386</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4250,14 +4264,14 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.266</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.7009999999999996</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.1619999999999999</v>
+      <c r="G84" s="5">
+        <v>1266</v>
+      </c>
+      <c r="H84" s="5">
+        <v>4701</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1162</v>
       </c>
       <c r="J84" s="4">
         <v>3</v>
@@ -4268,8 +4282,8 @@
       <c r="L84" s="4">
         <v>73</v>
       </c>
-      <c r="M84" s="5">
-        <v>7.2409999999999997</v>
+      <c r="M84" s="6">
+        <v>7241</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4292,11 +4306,11 @@
       <c r="G85" s="4">
         <v>982</v>
       </c>
-      <c r="H85" s="4">
-        <v>4.2309999999999999</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.627</v>
+      <c r="H85" s="5">
+        <v>4231</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1627</v>
       </c>
       <c r="J85" s="4">
         <v>10</v>
@@ -4307,8 +4321,8 @@
       <c r="L85" s="4">
         <v>50</v>
       </c>
-      <c r="M85" s="5">
-        <v>6.944</v>
+      <c r="M85" s="6">
+        <v>6944</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4333,11 +4347,11 @@
       <c r="G86" s="4">
         <v>899</v>
       </c>
-      <c r="H86" s="4">
-        <v>1.978</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2.3929999999999998</v>
+      <c r="H86" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2393</v>
       </c>
       <c r="J86" s="4">
         <v>101</v>
@@ -4348,8 +4362,8 @@
       <c r="L86" s="4">
         <v>55</v>
       </c>
-      <c r="M86" s="5">
-        <v>5.4870000000000001</v>
+      <c r="M86" s="6">
+        <v>5487</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4372,11 +4386,11 @@
       <c r="G87" s="4">
         <v>746</v>
       </c>
-      <c r="H87" s="4">
-        <v>1.331</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.8130000000000002</v>
+      <c r="H87" s="5">
+        <v>1331</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2813</v>
       </c>
       <c r="J87" s="4">
         <v>186</v>
@@ -4387,8 +4401,8 @@
       <c r="L87" s="4">
         <v>68</v>
       </c>
-      <c r="M87" s="5">
-        <v>5.3259999999999996</v>
+      <c r="M87" s="6">
+        <v>5326</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4413,11 +4427,11 @@
       <c r="G88" s="4">
         <v>483</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.913</v>
-      </c>
-      <c r="I88" s="4">
-        <v>2.31</v>
+      <c r="H88" s="5">
+        <v>1913</v>
+      </c>
+      <c r="I88" s="5">
+        <v>2310</v>
       </c>
       <c r="J88" s="4">
         <v>237</v>
@@ -4428,8 +4442,8 @@
       <c r="L88" s="4">
         <v>54</v>
       </c>
-      <c r="M88" s="5">
-        <v>5.4779999999999998</v>
+      <c r="M88" s="6">
+        <v>5478</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4452,11 +4466,11 @@
       <c r="G89" s="4">
         <v>421</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>2.3809999999999998</v>
+      <c r="H89" s="5">
+        <v>1469</v>
+      </c>
+      <c r="I89" s="5">
+        <v>2381</v>
       </c>
       <c r="J89" s="4">
         <v>251</v>
@@ -4467,8 +4481,8 @@
       <c r="L89" s="4">
         <v>58</v>
       </c>
-      <c r="M89" s="5">
-        <v>5.4020000000000001</v>
+      <c r="M89" s="6">
+        <v>5402</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4493,11 +4507,11 @@
       <c r="G90" s="4">
         <v>465</v>
       </c>
-      <c r="H90" s="4">
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.9590000000000001</v>
+      <c r="H90" s="5">
+        <v>2221</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1959</v>
       </c>
       <c r="J90" s="4">
         <v>245</v>
@@ -4508,8 +4522,8 @@
       <c r="L90" s="4">
         <v>64</v>
       </c>
-      <c r="M90" s="5">
-        <v>5.7359999999999998</v>
+      <c r="M90" s="6">
+        <v>5736</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4532,11 +4546,11 @@
       <c r="G91" s="4">
         <v>534</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1.86</v>
+      <c r="H91" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1860</v>
       </c>
       <c r="J91" s="4">
         <v>207</v>
@@ -4547,8 +4561,8 @@
       <c r="L91" s="4">
         <v>68</v>
       </c>
-      <c r="M91" s="5">
-        <v>5.8360000000000003</v>
+      <c r="M91" s="6">
+        <v>5836</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4573,11 +4587,11 @@
       <c r="G92" s="4">
         <v>796</v>
       </c>
-      <c r="H92" s="4">
-        <v>2.64</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.587</v>
+      <c r="H92" s="5">
+        <v>2640</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1587</v>
       </c>
       <c r="J92" s="4">
         <v>227</v>
@@ -4588,8 +4602,8 @@
       <c r="L92" s="4">
         <v>63</v>
       </c>
-      <c r="M92" s="5">
-        <v>6.22</v>
+      <c r="M92" s="6">
+        <v>6220</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4603,8 +4617,8 @@
       <c r="D93" s="4">
         <v>54</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.0940000000000001</v>
+      <c r="E93" s="5">
+        <v>1094</v>
       </c>
       <c r="F93" s="4">
         <v>580</v>
@@ -4612,11 +4626,11 @@
       <c r="G93" s="4">
         <v>944</v>
       </c>
-      <c r="H93" s="4">
-        <v>2.0230000000000001</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.4570000000000001</v>
+      <c r="H93" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1457</v>
       </c>
       <c r="J93" s="4">
         <v>197</v>
@@ -4627,8 +4641,8 @@
       <c r="L93" s="4">
         <v>51</v>
       </c>
-      <c r="M93" s="5">
-        <v>6.4509999999999996</v>
+      <c r="M93" s="6">
+        <v>6451</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4653,11 +4667,11 @@
       <c r="G94" s="4">
         <v>831</v>
       </c>
-      <c r="H94" s="4">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.298</v>
+      <c r="H94" s="5">
+        <v>2245</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1298</v>
       </c>
       <c r="J94" s="4">
         <v>164</v>
@@ -4668,8 +4682,8 @@
       <c r="L94" s="4">
         <v>57</v>
       </c>
-      <c r="M94" s="5">
-        <v>5.7290000000000001</v>
+      <c r="M94" s="6">
+        <v>5729</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4683,8 +4697,8 @@
       <c r="D95" s="4">
         <v>55</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.218</v>
+      <c r="E95" s="5">
+        <v>1218</v>
       </c>
       <c r="F95" s="4">
         <v>623</v>
@@ -4692,8 +4706,8 @@
       <c r="G95" s="4">
         <v>915</v>
       </c>
-      <c r="H95" s="4">
-        <v>1.548</v>
+      <c r="H95" s="5">
+        <v>1548</v>
       </c>
       <c r="I95" s="4">
         <v>858</v>
@@ -4707,8 +4721,8 @@
       <c r="L95" s="4">
         <v>54</v>
       </c>
-      <c r="M95" s="5">
-        <v>5.4189999999999996</v>
+      <c r="M95" s="6">
+        <v>5419</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4733,8 +4747,8 @@
       <c r="G96" s="4">
         <v>809</v>
       </c>
-      <c r="H96" s="4">
-        <v>1.569</v>
+      <c r="H96" s="5">
+        <v>1569</v>
       </c>
       <c r="I96" s="4">
         <v>975</v>
@@ -4748,8 +4762,8 @@
       <c r="L96" s="4">
         <v>50</v>
       </c>
-      <c r="M96" s="5">
-        <v>4.6669999999999998</v>
+      <c r="M96" s="6">
+        <v>4667</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4763,8 +4777,8 @@
       <c r="D97" s="4">
         <v>82</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.419</v>
+      <c r="E97" s="5">
+        <v>1419</v>
       </c>
       <c r="F97" s="4">
         <v>657</v>
@@ -4772,8 +4786,8 @@
       <c r="G97" s="4">
         <v>842</v>
       </c>
-      <c r="H97" s="4">
-        <v>1.1000000000000001</v>
+      <c r="H97" s="5">
+        <v>1100</v>
       </c>
       <c r="I97" s="4">
         <v>445</v>
@@ -4787,8 +4801,8 @@
       <c r="L97" s="4">
         <v>61</v>
       </c>
-      <c r="M97" s="5">
-        <v>4.694</v>
+      <c r="M97" s="6">
+        <v>4694</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4813,8 +4827,8 @@
       <c r="G98" s="4">
         <v>797</v>
       </c>
-      <c r="H98" s="4">
-        <v>1.2370000000000001</v>
+      <c r="H98" s="5">
+        <v>1237</v>
       </c>
       <c r="I98" s="4">
         <v>573</v>
@@ -4828,8 +4842,8 @@
       <c r="L98" s="4">
         <v>38</v>
       </c>
-      <c r="M98" s="5">
-        <v>3.9670000000000001</v>
+      <c r="M98" s="6">
+        <v>3967</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4843,8 +4857,8 @@
       <c r="D99" s="4">
         <v>151</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.7509999999999999</v>
+      <c r="E99" s="5">
+        <v>1751</v>
       </c>
       <c r="F99" s="4">
         <v>530</v>
@@ -4867,8 +4881,8 @@
       <c r="L99" s="4">
         <v>52</v>
       </c>
-      <c r="M99" s="5">
-        <v>4.274</v>
+      <c r="M99" s="6">
+        <v>4274</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4893,8 +4907,8 @@
       <c r="G100" s="4">
         <v>566</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.143</v>
+      <c r="H100" s="5">
+        <v>1143</v>
       </c>
       <c r="I100" s="4">
         <v>387</v>
@@ -4908,8 +4922,8 @@
       <c r="L100" s="4">
         <v>37</v>
       </c>
-      <c r="M100" s="5">
-        <v>3.407</v>
+      <c r="M100" s="6">
+        <v>3407</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4923,8 +4937,8 @@
       <c r="D101" s="4">
         <v>255</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.8560000000000001</v>
+      <c r="E101" s="5">
+        <v>1856</v>
       </c>
       <c r="F101" s="4">
         <v>279</v>
@@ -4947,8 +4961,8 @@
       <c r="L101" s="4">
         <v>43</v>
       </c>
-      <c r="M101" s="5">
-        <v>3.65</v>
+      <c r="M101" s="6">
+        <v>3650</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4964,8 +4978,8 @@
       <c r="D102" s="4">
         <v>59</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.036</v>
+      <c r="E102" s="5">
+        <v>1036</v>
       </c>
       <c r="F102" s="4">
         <v>128</v>
@@ -4988,8 +5002,8 @@
       <c r="L102" s="4">
         <v>39</v>
       </c>
-      <c r="M102" s="5">
-        <v>2.855</v>
+      <c r="M102" s="6">
+        <v>2855</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,8 +5017,8 @@
       <c r="D103" s="4">
         <v>360</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.708</v>
+      <c r="E103" s="5">
+        <v>1708</v>
       </c>
       <c r="F103" s="4">
         <v>124</v>
@@ -5027,8 +5041,8 @@
       <c r="L103" s="4">
         <v>32</v>
       </c>
-      <c r="M103" s="5">
-        <v>3.1080000000000001</v>
+      <c r="M103" s="6">
+        <v>3108</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5068,8 +5082,8 @@
       <c r="L104" s="4">
         <v>31</v>
       </c>
-      <c r="M104" s="5">
-        <v>1.9079999999999999</v>
+      <c r="M104" s="6">
+        <v>1908</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5083,8 +5097,8 @@
       <c r="D105" s="4">
         <v>349</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.0960000000000001</v>
+      <c r="E105" s="5">
+        <v>1096</v>
       </c>
       <c r="F105" s="4">
         <v>34</v>
@@ -5107,8 +5121,8 @@
       <c r="L105" s="4">
         <v>34</v>
       </c>
-      <c r="M105" s="5">
-        <v>2.129</v>
+      <c r="M105" s="6">
+        <v>2129</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5124,8 +5138,8 @@
       <c r="D106" s="4">
         <v>179</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.022</v>
+      <c r="E106" s="5">
+        <v>1022</v>
       </c>
       <c r="F106" s="4">
         <v>29</v>
@@ -5148,8 +5162,8 @@
       <c r="L106" s="4">
         <v>39</v>
       </c>
-      <c r="M106" s="5">
-        <v>1.964</v>
+      <c r="M106" s="6">
+        <v>1964</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,8 +5177,8 @@
       <c r="D107" s="4">
         <v>511</v>
       </c>
-      <c r="E107" s="4">
-        <v>1.093</v>
+      <c r="E107" s="5">
+        <v>1093</v>
       </c>
       <c r="F107" s="4">
         <v>10</v>
@@ -5187,54 +5201,54 @@
       <c r="L107" s="4">
         <v>50</v>
       </c>
-      <c r="M107" s="5">
-        <v>2.7120000000000002</v>
+      <c r="M107" s="6">
+        <v>2712</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="D108" s="5">
-        <v>2.472</v>
-      </c>
-      <c r="E108" s="5">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="F108" s="5">
-        <v>8.3290000000000006</v>
-      </c>
-      <c r="G108" s="5">
-        <v>14.718</v>
-      </c>
-      <c r="H108" s="5">
-        <v>36.292000000000002</v>
-      </c>
-      <c r="I108" s="5">
-        <v>25.463999999999999</v>
-      </c>
-      <c r="J108" s="5">
-        <v>2.238</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>1934</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2472</v>
+      </c>
+      <c r="E108" s="6">
+        <v>17760</v>
+      </c>
+      <c r="F108" s="6">
+        <v>8329</v>
+      </c>
+      <c r="G108" s="6">
+        <v>14718</v>
+      </c>
+      <c r="H108" s="6">
+        <v>36292</v>
+      </c>
+      <c r="I108" s="6">
+        <v>25464</v>
+      </c>
+      <c r="J108" s="6">
+        <v>2238</v>
+      </c>
+      <c r="K108" s="8">
         <v>176</v>
       </c>
-      <c r="L108" s="5">
-        <v>1.2210000000000001</v>
-      </c>
-      <c r="M108" s="5">
-        <v>110.604</v>
+      <c r="L108" s="6">
+        <v>1221</v>
+      </c>
+      <c r="M108" s="6">
+        <v>110604</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5288,11 +5302,11 @@
       <c r="F110" s="4">
         <v>1</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.296</v>
-      </c>
-      <c r="H110" s="4">
-        <v>1.79</v>
+      <c r="G110" s="5">
+        <v>1296</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1790</v>
       </c>
       <c r="I110" s="4">
         <v>319</v>
@@ -5306,8 +5320,8 @@
       <c r="L110" s="4">
         <v>52</v>
       </c>
-      <c r="M110" s="5">
-        <v>3.4870000000000001</v>
+      <c r="M110" s="6">
+        <v>3487</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5327,11 +5341,11 @@
       <c r="F111" s="4">
         <v>2</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1.8089999999999999</v>
+      <c r="G111" s="5">
+        <v>1048</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1809</v>
       </c>
       <c r="I111" s="4">
         <v>443</v>
@@ -5345,8 +5359,8 @@
       <c r="L111" s="4">
         <v>11</v>
       </c>
-      <c r="M111" s="5">
-        <v>3.3780000000000001</v>
+      <c r="M111" s="6">
+        <v>3378</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5386,8 +5400,8 @@
       <c r="L112" s="4">
         <v>19</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.5390000000000001</v>
+      <c r="M112" s="6">
+        <v>2539</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5425,8 +5439,8 @@
       <c r="L113" s="4">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
-        <v>2.411</v>
+      <c r="M113" s="6">
+        <v>2411</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5466,8 +5480,8 @@
       <c r="L114" s="4">
         <v>17</v>
       </c>
-      <c r="M114" s="5">
-        <v>2.4300000000000002</v>
+      <c r="M114" s="6">
+        <v>2430</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5505,8 +5519,8 @@
       <c r="L115" s="4">
         <v>15</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.16</v>
+      <c r="M115" s="6">
+        <v>2160</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,8 +5560,8 @@
       <c r="L116" s="4">
         <v>22</v>
       </c>
-      <c r="M116" s="5">
-        <v>2.0990000000000002</v>
+      <c r="M116" s="6">
+        <v>2099</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5585,8 +5599,8 @@
       <c r="L117" s="4">
         <v>10</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.8180000000000001</v>
+      <c r="M117" s="6">
+        <v>1818</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,8 +5640,8 @@
       <c r="L118" s="4">
         <v>8</v>
       </c>
-      <c r="M118" s="5">
-        <v>2.008</v>
+      <c r="M118" s="6">
+        <v>2008</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5665,8 +5679,8 @@
       <c r="L119" s="4">
         <v>10</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.8380000000000001</v>
+      <c r="M119" s="6">
+        <v>1838</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5706,8 +5720,8 @@
       <c r="L120" s="4">
         <v>6</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.5740000000000001</v>
+      <c r="M120" s="6">
+        <v>1574</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5745,8 +5759,8 @@
       <c r="L121" s="4">
         <v>10</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.3720000000000001</v>
+      <c r="M121" s="6">
+        <v>1372</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5786,8 +5800,8 @@
       <c r="L122" s="4">
         <v>14</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.3320000000000001</v>
+      <c r="M122" s="6">
+        <v>1332</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5825,8 +5839,8 @@
       <c r="L123" s="4">
         <v>6</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.147</v>
+      <c r="M123" s="6">
+        <v>1147</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5866,8 +5880,8 @@
       <c r="L124" s="4">
         <v>5</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.056</v>
+      <c r="M124" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5905,7 +5919,7 @@
       <c r="L125" s="4">
         <v>7</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>954</v>
       </c>
     </row>
@@ -5946,7 +5960,7 @@
       <c r="L126" s="4">
         <v>3</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>826</v>
       </c>
     </row>
@@ -5985,7 +5999,7 @@
       <c r="L127" s="4">
         <v>6</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>745</v>
       </c>
     </row>
@@ -6026,7 +6040,7 @@
       <c r="L128" s="4">
         <v>6</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>555</v>
       </c>
     </row>
@@ -6065,7 +6079,7 @@
       <c r="L129" s="4">
         <v>9</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>618</v>
       </c>
     </row>
@@ -6106,7 +6120,7 @@
       <c r="L130" s="4">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>336</v>
       </c>
     </row>
@@ -6145,7 +6159,7 @@
       <c r="L131" s="4">
         <v>7</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>439</v>
       </c>
     </row>
@@ -6186,7 +6200,7 @@
       <c r="L132" s="4">
         <v>4</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>377</v>
       </c>
     </row>
@@ -6225,7 +6239,7 @@
       <c r="L133" s="4">
         <v>8</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>544</v>
       </c>
     </row>
@@ -6233,46 +6247,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.093</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.27</v>
-      </c>
-      <c r="E134" s="5">
-        <v>6.7910000000000004</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4.9290000000000003</v>
-      </c>
-      <c r="G134" s="5">
-        <v>7.6550000000000002</v>
-      </c>
-      <c r="H134" s="5">
-        <v>9.9670000000000005</v>
-      </c>
-      <c r="I134" s="5">
-        <v>3.859</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>1093</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1270</v>
+      </c>
+      <c r="E134" s="6">
+        <v>6791</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4929</v>
+      </c>
+      <c r="G134" s="6">
+        <v>7655</v>
+      </c>
+      <c r="H134" s="6">
+        <v>9967</v>
+      </c>
+      <c r="I134" s="6">
+        <v>3859</v>
+      </c>
+      <c r="J134" s="8">
         <v>194</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>13</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>272</v>
       </c>
-      <c r="M134" s="5">
-        <v>36.042999999999999</v>
+      <c r="M134" s="6">
+        <v>36043</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6326,14 +6340,14 @@
       <c r="F136" s="4">
         <v>3</v>
       </c>
-      <c r="G136" s="4">
-        <v>5.3029999999999999</v>
-      </c>
-      <c r="H136" s="4">
-        <v>12.978999999999999</v>
-      </c>
-      <c r="I136" s="4">
-        <v>2.7639999999999998</v>
+      <c r="G136" s="5">
+        <v>5303</v>
+      </c>
+      <c r="H136" s="5">
+        <v>12979</v>
+      </c>
+      <c r="I136" s="5">
+        <v>2764</v>
       </c>
       <c r="J136" s="4">
         <v>11</v>
@@ -6344,8 +6358,8 @@
       <c r="L136" s="4">
         <v>218</v>
       </c>
-      <c r="M136" s="5">
-        <v>21.381</v>
+      <c r="M136" s="6">
+        <v>21381</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6365,14 +6379,14 @@
       <c r="F137" s="4">
         <v>3</v>
       </c>
-      <c r="G137" s="4">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="H137" s="4">
-        <v>12.487</v>
-      </c>
-      <c r="I137" s="4">
-        <v>4.1269999999999998</v>
+      <c r="G137" s="5">
+        <v>3557</v>
+      </c>
+      <c r="H137" s="5">
+        <v>12487</v>
+      </c>
+      <c r="I137" s="5">
+        <v>4127</v>
       </c>
       <c r="J137" s="4">
         <v>21</v>
@@ -6383,8 +6397,8 @@
       <c r="L137" s="4">
         <v>125</v>
       </c>
-      <c r="M137" s="5">
-        <v>20.518999999999998</v>
+      <c r="M137" s="6">
+        <v>20519</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,14 +6420,14 @@
       <c r="F138" s="4">
         <v>117</v>
       </c>
-      <c r="G138" s="4">
-        <v>3.9580000000000002</v>
-      </c>
-      <c r="H138" s="4">
-        <v>5.718</v>
-      </c>
-      <c r="I138" s="4">
-        <v>6.4619999999999997</v>
+      <c r="G138" s="5">
+        <v>3958</v>
+      </c>
+      <c r="H138" s="5">
+        <v>5718</v>
+      </c>
+      <c r="I138" s="5">
+        <v>6462</v>
       </c>
       <c r="J138" s="4">
         <v>332</v>
@@ -6424,8 +6438,8 @@
       <c r="L138" s="4">
         <v>182</v>
       </c>
-      <c r="M138" s="5">
-        <v>16.925000000000001</v>
+      <c r="M138" s="6">
+        <v>16925</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6445,14 +6459,14 @@
       <c r="F139" s="4">
         <v>152</v>
       </c>
-      <c r="G139" s="4">
-        <v>3.4089999999999998</v>
-      </c>
-      <c r="H139" s="4">
-        <v>4.45</v>
-      </c>
-      <c r="I139" s="4">
-        <v>7.7750000000000004</v>
+      <c r="G139" s="5">
+        <v>3409</v>
+      </c>
+      <c r="H139" s="5">
+        <v>4450</v>
+      </c>
+      <c r="I139" s="5">
+        <v>7775</v>
       </c>
       <c r="J139" s="4">
         <v>537</v>
@@ -6463,8 +6477,8 @@
       <c r="L139" s="4">
         <v>165</v>
       </c>
-      <c r="M139" s="5">
-        <v>16.992999999999999</v>
+      <c r="M139" s="6">
+        <v>16993</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6483,17 +6497,17 @@
       <c r="E140" s="4">
         <v>110</v>
       </c>
-      <c r="F140" s="4">
-        <v>2.0350000000000001</v>
-      </c>
-      <c r="G140" s="4">
-        <v>2.0710000000000002</v>
-      </c>
-      <c r="H140" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="I140" s="4">
-        <v>6.1269999999999998</v>
+      <c r="F140" s="5">
+        <v>2035</v>
+      </c>
+      <c r="G140" s="5">
+        <v>2071</v>
+      </c>
+      <c r="H140" s="5">
+        <v>6420</v>
+      </c>
+      <c r="I140" s="5">
+        <v>6127</v>
       </c>
       <c r="J140" s="4">
         <v>667</v>
@@ -6504,8 +6518,8 @@
       <c r="L140" s="4">
         <v>135</v>
       </c>
-      <c r="M140" s="5">
-        <v>17.73</v>
+      <c r="M140" s="6">
+        <v>17730</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6522,17 +6536,17 @@
       <c r="E141" s="4">
         <v>340</v>
       </c>
-      <c r="F141" s="4">
-        <v>2.706</v>
-      </c>
-      <c r="G141" s="4">
-        <v>1.772</v>
-      </c>
-      <c r="H141" s="4">
-        <v>4.9180000000000001</v>
-      </c>
-      <c r="I141" s="4">
-        <v>6.6920000000000002</v>
+      <c r="F141" s="5">
+        <v>2706</v>
+      </c>
+      <c r="G141" s="5">
+        <v>1772</v>
+      </c>
+      <c r="H141" s="5">
+        <v>4918</v>
+      </c>
+      <c r="I141" s="5">
+        <v>6692</v>
       </c>
       <c r="J141" s="4">
         <v>685</v>
@@ -6543,8 +6557,8 @@
       <c r="L141" s="4">
         <v>157</v>
       </c>
-      <c r="M141" s="5">
-        <v>17.75</v>
+      <c r="M141" s="6">
+        <v>17750</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6563,17 +6577,17 @@
       <c r="E142" s="4">
         <v>722</v>
       </c>
-      <c r="F142" s="4">
-        <v>2.74</v>
-      </c>
-      <c r="G142" s="4">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="H142" s="4">
-        <v>7.2619999999999996</v>
-      </c>
-      <c r="I142" s="4">
-        <v>5.0030000000000001</v>
+      <c r="F142" s="5">
+        <v>2740</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1725</v>
+      </c>
+      <c r="H142" s="5">
+        <v>7262</v>
+      </c>
+      <c r="I142" s="5">
+        <v>5003</v>
       </c>
       <c r="J142" s="4">
         <v>687</v>
@@ -6584,8 +6598,8 @@
       <c r="L142" s="4">
         <v>123</v>
       </c>
-      <c r="M142" s="5">
-        <v>18.398</v>
+      <c r="M142" s="6">
+        <v>18398</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6599,20 +6613,20 @@
       <c r="D143" s="4">
         <v>236</v>
       </c>
-      <c r="E143" s="4">
-        <v>2.3980000000000001</v>
-      </c>
-      <c r="F143" s="4">
-        <v>2.718</v>
-      </c>
-      <c r="G143" s="4">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="H143" s="4">
-        <v>5.0830000000000002</v>
-      </c>
-      <c r="I143" s="4">
-        <v>4.3049999999999997</v>
+      <c r="E143" s="5">
+        <v>2398</v>
+      </c>
+      <c r="F143" s="5">
+        <v>2718</v>
+      </c>
+      <c r="G143" s="5">
+        <v>2151</v>
+      </c>
+      <c r="H143" s="5">
+        <v>5083</v>
+      </c>
+      <c r="I143" s="5">
+        <v>4305</v>
       </c>
       <c r="J143" s="4">
         <v>467</v>
@@ -6623,8 +6637,8 @@
       <c r="L143" s="4">
         <v>121</v>
       </c>
-      <c r="M143" s="5">
-        <v>17.587</v>
+      <c r="M143" s="6">
+        <v>17587</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6640,20 +6654,20 @@
       <c r="D144" s="4">
         <v>42</v>
       </c>
-      <c r="E144" s="4">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="F144" s="4">
-        <v>2.536</v>
-      </c>
-      <c r="G144" s="4">
-        <v>3.08</v>
-      </c>
-      <c r="H144" s="4">
-        <v>7.4829999999999997</v>
-      </c>
-      <c r="I144" s="4">
-        <v>3.3559999999999999</v>
+      <c r="E144" s="5">
+        <v>1312</v>
+      </c>
+      <c r="F144" s="5">
+        <v>2536</v>
+      </c>
+      <c r="G144" s="5">
+        <v>3080</v>
+      </c>
+      <c r="H144" s="5">
+        <v>7483</v>
+      </c>
+      <c r="I144" s="5">
+        <v>3356</v>
       </c>
       <c r="J144" s="4">
         <v>548</v>
@@ -6664,8 +6678,8 @@
       <c r="L144" s="4">
         <v>102</v>
       </c>
-      <c r="M144" s="5">
-        <v>18.515000000000001</v>
+      <c r="M144" s="6">
+        <v>18515</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6679,20 +6693,20 @@
       <c r="D145" s="4">
         <v>174</v>
       </c>
-      <c r="E145" s="4">
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="F145" s="4">
-        <v>2.339</v>
-      </c>
-      <c r="G145" s="4">
-        <v>3.012</v>
-      </c>
-      <c r="H145" s="4">
-        <v>4.8529999999999998</v>
-      </c>
-      <c r="I145" s="4">
-        <v>2.6589999999999998</v>
+      <c r="E145" s="5">
+        <v>3947</v>
+      </c>
+      <c r="F145" s="5">
+        <v>2339</v>
+      </c>
+      <c r="G145" s="5">
+        <v>3012</v>
+      </c>
+      <c r="H145" s="5">
+        <v>4853</v>
+      </c>
+      <c r="I145" s="5">
+        <v>2659</v>
       </c>
       <c r="J145" s="4">
         <v>327</v>
@@ -6703,8 +6717,8 @@
       <c r="L145" s="4">
         <v>135</v>
       </c>
-      <c r="M145" s="5">
-        <v>17.565000000000001</v>
+      <c r="M145" s="6">
+        <v>17565</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6720,20 +6734,20 @@
       <c r="D146" s="4">
         <v>32</v>
       </c>
-      <c r="E146" s="4">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="F146" s="4">
-        <v>2.7109999999999999</v>
-      </c>
-      <c r="G146" s="4">
-        <v>2.5529999999999999</v>
-      </c>
-      <c r="H146" s="4">
-        <v>5.8659999999999997</v>
-      </c>
-      <c r="I146" s="4">
-        <v>2.1469999999999998</v>
+      <c r="E146" s="5">
+        <v>1616</v>
+      </c>
+      <c r="F146" s="5">
+        <v>2711</v>
+      </c>
+      <c r="G146" s="5">
+        <v>2553</v>
+      </c>
+      <c r="H146" s="5">
+        <v>5866</v>
+      </c>
+      <c r="I146" s="5">
+        <v>2147</v>
       </c>
       <c r="J146" s="4">
         <v>329</v>
@@ -6744,8 +6758,8 @@
       <c r="L146" s="4">
         <v>83</v>
       </c>
-      <c r="M146" s="5">
-        <v>15.398999999999999</v>
+      <c r="M146" s="6">
+        <v>15399</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6759,20 +6773,20 @@
       <c r="D147" s="4">
         <v>150</v>
       </c>
-      <c r="E147" s="4">
-        <v>4.2750000000000004</v>
-      </c>
-      <c r="F147" s="4">
-        <v>2.379</v>
-      </c>
-      <c r="G147" s="4">
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="H147" s="4">
-        <v>3.3239999999999998</v>
-      </c>
-      <c r="I147" s="4">
-        <v>1.4179999999999999</v>
+      <c r="E147" s="5">
+        <v>4275</v>
+      </c>
+      <c r="F147" s="5">
+        <v>2379</v>
+      </c>
+      <c r="G147" s="5">
+        <v>2326</v>
+      </c>
+      <c r="H147" s="5">
+        <v>3324</v>
+      </c>
+      <c r="I147" s="5">
+        <v>1418</v>
       </c>
       <c r="J147" s="4">
         <v>143</v>
@@ -6783,8 +6797,8 @@
       <c r="L147" s="4">
         <v>108</v>
       </c>
-      <c r="M147" s="5">
-        <v>14.243</v>
+      <c r="M147" s="6">
+        <v>14243</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6800,20 +6814,20 @@
       <c r="D148" s="4">
         <v>28</v>
       </c>
-      <c r="E148" s="4">
-        <v>1.772</v>
-      </c>
-      <c r="F148" s="4">
-        <v>2.661</v>
-      </c>
-      <c r="G148" s="4">
-        <v>2.2930000000000001</v>
-      </c>
-      <c r="H148" s="4">
-        <v>3.8460000000000001</v>
-      </c>
-      <c r="I148" s="4">
-        <v>1.3839999999999999</v>
+      <c r="E148" s="5">
+        <v>1772</v>
+      </c>
+      <c r="F148" s="5">
+        <v>2661</v>
+      </c>
+      <c r="G148" s="5">
+        <v>2293</v>
+      </c>
+      <c r="H148" s="5">
+        <v>3846</v>
+      </c>
+      <c r="I148" s="5">
+        <v>1384</v>
       </c>
       <c r="J148" s="4">
         <v>170</v>
@@ -6824,8 +6838,8 @@
       <c r="L148" s="4">
         <v>79</v>
       </c>
-      <c r="M148" s="5">
-        <v>12.289</v>
+      <c r="M148" s="6">
+        <v>12289</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,17 +6853,17 @@
       <c r="D149" s="4">
         <v>250</v>
       </c>
-      <c r="E149" s="4">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="F149" s="4">
-        <v>2.0739999999999998</v>
-      </c>
-      <c r="G149" s="4">
-        <v>1.7769999999999999</v>
-      </c>
-      <c r="H149" s="4">
-        <v>2.113</v>
+      <c r="E149" s="5">
+        <v>4189</v>
+      </c>
+      <c r="F149" s="5">
+        <v>2074</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1777</v>
+      </c>
+      <c r="H149" s="5">
+        <v>2113</v>
       </c>
       <c r="I149" s="4">
         <v>627</v>
@@ -6863,8 +6877,8 @@
       <c r="L149" s="4">
         <v>117</v>
       </c>
-      <c r="M149" s="5">
-        <v>11.366</v>
+      <c r="M149" s="6">
+        <v>11366</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6880,17 +6894,17 @@
       <c r="D150" s="4">
         <v>43</v>
       </c>
-      <c r="E150" s="4">
-        <v>1.964</v>
-      </c>
-      <c r="F150" s="4">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="G150" s="4">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="H150" s="4">
-        <v>2.5209999999999999</v>
+      <c r="E150" s="5">
+        <v>1964</v>
+      </c>
+      <c r="F150" s="5">
+        <v>2263</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1795</v>
+      </c>
+      <c r="H150" s="5">
+        <v>2521</v>
       </c>
       <c r="I150" s="4">
         <v>829</v>
@@ -6904,8 +6918,8 @@
       <c r="L150" s="4">
         <v>83</v>
       </c>
-      <c r="M150" s="5">
-        <v>9.67</v>
+      <c r="M150" s="6">
+        <v>9670</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6919,17 +6933,17 @@
       <c r="D151" s="4">
         <v>435</v>
       </c>
-      <c r="E151" s="4">
-        <v>4.3310000000000004</v>
-      </c>
-      <c r="F151" s="4">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="G151" s="4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H151" s="4">
-        <v>1.329</v>
+      <c r="E151" s="5">
+        <v>4331</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1334</v>
+      </c>
+      <c r="G151" s="5">
+        <v>1140</v>
+      </c>
+      <c r="H151" s="5">
+        <v>1329</v>
       </c>
       <c r="I151" s="4">
         <v>304</v>
@@ -6943,8 +6957,8 @@
       <c r="L151" s="4">
         <v>108</v>
       </c>
-      <c r="M151" s="5">
-        <v>9.3000000000000007</v>
+      <c r="M151" s="6">
+        <v>9300</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6960,17 +6974,17 @@
       <c r="D152" s="4">
         <v>95</v>
       </c>
-      <c r="E152" s="4">
-        <v>2.2690000000000001</v>
-      </c>
-      <c r="F152" s="4">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G152" s="4">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="H152" s="4">
-        <v>1.81</v>
+      <c r="E152" s="5">
+        <v>2269</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1239</v>
+      </c>
+      <c r="G152" s="5">
+        <v>1136</v>
+      </c>
+      <c r="H152" s="5">
+        <v>1810</v>
       </c>
       <c r="I152" s="4">
         <v>500</v>
@@ -6984,8 +6998,8 @@
       <c r="L152" s="4">
         <v>81</v>
       </c>
-      <c r="M152" s="5">
-        <v>7.2220000000000004</v>
+      <c r="M152" s="6">
+        <v>7222</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6999,8 +7013,8 @@
       <c r="D153" s="4">
         <v>542</v>
       </c>
-      <c r="E153" s="4">
-        <v>3.6389999999999998</v>
+      <c r="E153" s="5">
+        <v>3639</v>
       </c>
       <c r="F153" s="4">
         <v>636</v>
@@ -7023,8 +7037,8 @@
       <c r="L153" s="4">
         <v>100</v>
       </c>
-      <c r="M153" s="5">
-        <v>7.0670000000000002</v>
+      <c r="M153" s="6">
+        <v>7067</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7040,8 +7054,8 @@
       <c r="D154" s="4">
         <v>119</v>
       </c>
-      <c r="E154" s="4">
-        <v>2.141</v>
+      <c r="E154" s="5">
+        <v>2141</v>
       </c>
       <c r="F154" s="4">
         <v>515</v>
@@ -7064,8 +7078,8 @@
       <c r="L154" s="4">
         <v>60</v>
       </c>
-      <c r="M154" s="5">
-        <v>5.016</v>
+      <c r="M154" s="6">
+        <v>5016</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7079,8 +7093,8 @@
       <c r="D155" s="4">
         <v>701</v>
       </c>
-      <c r="E155" s="4">
-        <v>2.6909999999999998</v>
+      <c r="E155" s="5">
+        <v>2691</v>
       </c>
       <c r="F155" s="4">
         <v>229</v>
@@ -7103,8 +7117,8 @@
       <c r="L155" s="4">
         <v>79</v>
       </c>
-      <c r="M155" s="5">
-        <v>5.4630000000000001</v>
+      <c r="M155" s="6">
+        <v>5463</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7120,8 +7134,8 @@
       <c r="D156" s="4">
         <v>145</v>
       </c>
-      <c r="E156" s="4">
-        <v>1.5649999999999999</v>
+      <c r="E156" s="5">
+        <v>1565</v>
       </c>
       <c r="F156" s="4">
         <v>149</v>
@@ -7144,8 +7158,8 @@
       <c r="L156" s="4">
         <v>37</v>
       </c>
-      <c r="M156" s="5">
-        <v>2.9969999999999999</v>
+      <c r="M156" s="6">
+        <v>2997</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,8 +7173,8 @@
       <c r="D157" s="4">
         <v>597</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.6359999999999999</v>
+      <c r="E157" s="5">
+        <v>1636</v>
       </c>
       <c r="F157" s="4">
         <v>81</v>
@@ -7183,8 +7197,8 @@
       <c r="L157" s="4">
         <v>62</v>
       </c>
-      <c r="M157" s="5">
-        <v>3.7229999999999999</v>
+      <c r="M157" s="6">
+        <v>3723</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7200,8 +7214,8 @@
       <c r="D158" s="4">
         <v>305</v>
       </c>
-      <c r="E158" s="4">
-        <v>1.6859999999999999</v>
+      <c r="E158" s="5">
+        <v>1686</v>
       </c>
       <c r="F158" s="4">
         <v>65</v>
@@ -7224,8 +7238,8 @@
       <c r="L158" s="4">
         <v>70</v>
       </c>
-      <c r="M158" s="5">
-        <v>3.032</v>
+      <c r="M158" s="6">
+        <v>3032</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7233,14 +7247,14 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.391</v>
+      <c r="C159" s="5">
+        <v>1391</v>
       </c>
       <c r="D159" s="4">
         <v>916</v>
       </c>
-      <c r="E159" s="4">
-        <v>1.591</v>
+      <c r="E159" s="5">
+        <v>1591</v>
       </c>
       <c r="F159" s="4">
         <v>43</v>
@@ -7263,54 +7277,54 @@
       <c r="L159" s="4">
         <v>101</v>
       </c>
-      <c r="M159" s="5">
-        <v>4.4109999999999996</v>
+      <c r="M159" s="6">
+        <v>4411</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>4.468</v>
-      </c>
-      <c r="D160" s="5">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="E160" s="5">
-        <v>44.738</v>
-      </c>
-      <c r="F160" s="5">
-        <v>31.728000000000002</v>
-      </c>
-      <c r="G160" s="5">
-        <v>46.006999999999998</v>
-      </c>
-      <c r="H160" s="5">
-        <v>95.768000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>57.75</v>
-      </c>
-      <c r="J160" s="5">
-        <v>5.282</v>
-      </c>
-      <c r="K160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>4468</v>
+      </c>
+      <c r="D160" s="6">
+        <v>5767</v>
+      </c>
+      <c r="E160" s="6">
+        <v>44738</v>
+      </c>
+      <c r="F160" s="6">
+        <v>31728</v>
+      </c>
+      <c r="G160" s="6">
+        <v>46007</v>
+      </c>
+      <c r="H160" s="6">
+        <v>95768</v>
+      </c>
+      <c r="I160" s="6">
+        <v>57750</v>
+      </c>
+      <c r="J160" s="6">
+        <v>5282</v>
+      </c>
+      <c r="K160" s="8">
         <v>422</v>
       </c>
-      <c r="L160" s="5">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="M160" s="5">
-        <v>294.56099999999998</v>
+      <c r="L160" s="6">
+        <v>2631</v>
+      </c>
+      <c r="M160" s="6">
+        <v>294561</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7364,14 +7378,14 @@
       <c r="F162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="H162" s="4">
-        <v>5.8330000000000002</v>
-      </c>
-      <c r="I162" s="4">
-        <v>1.242</v>
+      <c r="G162" s="5">
+        <v>1382</v>
+      </c>
+      <c r="H162" s="5">
+        <v>5833</v>
+      </c>
+      <c r="I162" s="5">
+        <v>1242</v>
       </c>
       <c r="J162" s="4">
         <v>5</v>
@@ -7382,8 +7396,8 @@
       <c r="L162" s="4">
         <v>69</v>
       </c>
-      <c r="M162" s="5">
-        <v>8.5670000000000002</v>
+      <c r="M162" s="6">
+        <v>8567</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7403,14 +7417,14 @@
       <c r="F163" s="4">
         <v>2</v>
       </c>
-      <c r="G163" s="4">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="H163" s="4">
-        <v>5.1180000000000003</v>
-      </c>
-      <c r="I163" s="4">
-        <v>1.6990000000000001</v>
+      <c r="G163" s="5">
+        <v>1118</v>
+      </c>
+      <c r="H163" s="5">
+        <v>5118</v>
+      </c>
+      <c r="I163" s="5">
+        <v>1699</v>
       </c>
       <c r="J163" s="4">
         <v>16</v>
@@ -7421,8 +7435,8 @@
       <c r="L163" s="4">
         <v>28</v>
       </c>
-      <c r="M163" s="5">
-        <v>8.0459999999999994</v>
+      <c r="M163" s="6">
+        <v>8046</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7447,11 +7461,11 @@
       <c r="G164" s="4">
         <v>845</v>
       </c>
-      <c r="H164" s="4">
-        <v>2.8650000000000002</v>
-      </c>
-      <c r="I164" s="4">
-        <v>2.8660000000000001</v>
+      <c r="H164" s="5">
+        <v>2865</v>
+      </c>
+      <c r="I164" s="5">
+        <v>2866</v>
       </c>
       <c r="J164" s="4">
         <v>159</v>
@@ -7462,8 +7476,8 @@
       <c r="L164" s="4">
         <v>46</v>
       </c>
-      <c r="M164" s="5">
-        <v>6.84</v>
+      <c r="M164" s="6">
+        <v>6840</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7486,11 +7500,11 @@
       <c r="G165" s="4">
         <v>876</v>
       </c>
-      <c r="H165" s="4">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="I165" s="4">
-        <v>3.238</v>
+      <c r="H165" s="5">
+        <v>1789</v>
+      </c>
+      <c r="I165" s="5">
+        <v>3238</v>
       </c>
       <c r="J165" s="4">
         <v>218</v>
@@ -7501,8 +7515,8 @@
       <c r="L165" s="4">
         <v>60</v>
       </c>
-      <c r="M165" s="5">
-        <v>6.3630000000000004</v>
+      <c r="M165" s="6">
+        <v>6363</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7527,11 +7541,11 @@
       <c r="G166" s="4">
         <v>554</v>
       </c>
-      <c r="H166" s="4">
-        <v>2.82</v>
-      </c>
-      <c r="I166" s="4">
-        <v>2.7509999999999999</v>
+      <c r="H166" s="5">
+        <v>2820</v>
+      </c>
+      <c r="I166" s="5">
+        <v>2751</v>
       </c>
       <c r="J166" s="4">
         <v>251</v>
@@ -7542,8 +7556,8 @@
       <c r="L166" s="4">
         <v>44</v>
       </c>
-      <c r="M166" s="5">
-        <v>6.84</v>
+      <c r="M166" s="6">
+        <v>6840</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7566,11 +7580,11 @@
       <c r="G167" s="4">
         <v>548</v>
       </c>
-      <c r="H167" s="4">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="I167" s="4">
-        <v>2.9060000000000001</v>
+      <c r="H167" s="5">
+        <v>1967</v>
+      </c>
+      <c r="I167" s="5">
+        <v>2906</v>
       </c>
       <c r="J167" s="4">
         <v>285</v>
@@ -7581,8 +7595,8 @@
       <c r="L167" s="4">
         <v>64</v>
       </c>
-      <c r="M167" s="5">
-        <v>6.63</v>
+      <c r="M167" s="6">
+        <v>6630</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7607,11 +7621,11 @@
       <c r="G168" s="4">
         <v>459</v>
       </c>
-      <c r="H168" s="4">
-        <v>2.778</v>
-      </c>
-      <c r="I168" s="4">
-        <v>2.4260000000000002</v>
+      <c r="H168" s="5">
+        <v>2778</v>
+      </c>
+      <c r="I168" s="5">
+        <v>2426</v>
       </c>
       <c r="J168" s="4">
         <v>269</v>
@@ -7622,8 +7636,8 @@
       <c r="L168" s="4">
         <v>54</v>
       </c>
-      <c r="M168" s="5">
-        <v>6.7060000000000004</v>
+      <c r="M168" s="6">
+        <v>6706</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7646,11 +7660,11 @@
       <c r="G169" s="4">
         <v>676</v>
       </c>
-      <c r="H169" s="4">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="I169" s="4">
-        <v>2.3260000000000001</v>
+      <c r="H169" s="5">
+        <v>2381</v>
+      </c>
+      <c r="I169" s="5">
+        <v>2326</v>
       </c>
       <c r="J169" s="4">
         <v>305</v>
@@ -7661,8 +7675,8 @@
       <c r="L169" s="4">
         <v>64</v>
       </c>
-      <c r="M169" s="5">
-        <v>7.1079999999999997</v>
+      <c r="M169" s="6">
+        <v>7108</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7687,11 +7701,11 @@
       <c r="G170" s="4">
         <v>940</v>
       </c>
-      <c r="H170" s="4">
-        <v>3.4870000000000001</v>
-      </c>
-      <c r="I170" s="4">
-        <v>2.2599999999999998</v>
+      <c r="H170" s="5">
+        <v>3487</v>
+      </c>
+      <c r="I170" s="5">
+        <v>2260</v>
       </c>
       <c r="J170" s="4">
         <v>283</v>
@@ -7702,8 +7716,8 @@
       <c r="L170" s="4">
         <v>37</v>
       </c>
-      <c r="M170" s="5">
-        <v>7.9020000000000001</v>
+      <c r="M170" s="6">
+        <v>7902</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7717,20 +7731,20 @@
       <c r="D171" s="4">
         <v>44</v>
       </c>
-      <c r="E171" s="4">
-        <v>1.03</v>
+      <c r="E171" s="5">
+        <v>1030</v>
       </c>
       <c r="F171" s="4">
         <v>487</v>
       </c>
-      <c r="G171" s="4">
-        <v>1.105</v>
-      </c>
-      <c r="H171" s="4">
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="I171" s="4">
-        <v>2.044</v>
+      <c r="G171" s="5">
+        <v>1105</v>
+      </c>
+      <c r="H171" s="5">
+        <v>2676</v>
+      </c>
+      <c r="I171" s="5">
+        <v>2044</v>
       </c>
       <c r="J171" s="4">
         <v>280</v>
@@ -7741,8 +7755,8 @@
       <c r="L171" s="4">
         <v>38</v>
       </c>
-      <c r="M171" s="5">
-        <v>7.7430000000000003</v>
+      <c r="M171" s="6">
+        <v>7743</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7767,11 +7781,11 @@
       <c r="G172" s="4">
         <v>791</v>
       </c>
-      <c r="H172" s="4">
-        <v>2.82</v>
-      </c>
-      <c r="I172" s="4">
-        <v>1.76</v>
+      <c r="H172" s="5">
+        <v>2820</v>
+      </c>
+      <c r="I172" s="5">
+        <v>1760</v>
       </c>
       <c r="J172" s="4">
         <v>232</v>
@@ -7782,8 +7796,8 @@
       <c r="L172" s="4">
         <v>46</v>
       </c>
-      <c r="M172" s="5">
-        <v>6.625</v>
+      <c r="M172" s="6">
+        <v>6625</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7797,20 +7811,20 @@
       <c r="D173" s="4">
         <v>45</v>
       </c>
-      <c r="E173" s="4">
-        <v>1.1220000000000001</v>
+      <c r="E173" s="5">
+        <v>1122</v>
       </c>
       <c r="F173" s="4">
         <v>574</v>
       </c>
-      <c r="G173" s="4">
-        <v>1.008</v>
-      </c>
-      <c r="H173" s="4">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="I173" s="4">
-        <v>1.179</v>
+      <c r="G173" s="5">
+        <v>1008</v>
+      </c>
+      <c r="H173" s="5">
+        <v>2063</v>
+      </c>
+      <c r="I173" s="5">
+        <v>1179</v>
       </c>
       <c r="J173" s="4">
         <v>143</v>
@@ -7821,8 +7835,8 @@
       <c r="L173" s="4">
         <v>44</v>
       </c>
-      <c r="M173" s="5">
-        <v>6.2149999999999999</v>
+      <c r="M173" s="6">
+        <v>6215</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7847,11 +7861,11 @@
       <c r="G174" s="4">
         <v>827</v>
       </c>
-      <c r="H174" s="4">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="I174" s="4">
-        <v>1.2050000000000001</v>
+      <c r="H174" s="5">
+        <v>1995</v>
+      </c>
+      <c r="I174" s="5">
+        <v>1205</v>
       </c>
       <c r="J174" s="4">
         <v>174</v>
@@ -7862,8 +7876,8 @@
       <c r="L174" s="4">
         <v>53</v>
       </c>
-      <c r="M174" s="5">
-        <v>5.3230000000000004</v>
+      <c r="M174" s="6">
+        <v>5323</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7877,8 +7891,8 @@
       <c r="D175" s="4">
         <v>82</v>
       </c>
-      <c r="E175" s="4">
-        <v>1.3859999999999999</v>
+      <c r="E175" s="5">
+        <v>1386</v>
       </c>
       <c r="F175" s="4">
         <v>564</v>
@@ -7886,8 +7900,8 @@
       <c r="G175" s="4">
         <v>865</v>
       </c>
-      <c r="H175" s="4">
-        <v>1.5529999999999999</v>
+      <c r="H175" s="5">
+        <v>1553</v>
       </c>
       <c r="I175" s="4">
         <v>705</v>
@@ -7901,8 +7915,8 @@
       <c r="L175" s="4">
         <v>64</v>
       </c>
-      <c r="M175" s="5">
-        <v>5.335</v>
+      <c r="M175" s="6">
+        <v>5335</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7927,8 +7941,8 @@
       <c r="G176" s="4">
         <v>815</v>
       </c>
-      <c r="H176" s="4">
-        <v>1.6379999999999999</v>
+      <c r="H176" s="5">
+        <v>1638</v>
       </c>
       <c r="I176" s="4">
         <v>791</v>
@@ -7942,8 +7956,8 @@
       <c r="L176" s="4">
         <v>48</v>
       </c>
-      <c r="M176" s="5">
-        <v>4.5119999999999996</v>
+      <c r="M176" s="6">
+        <v>4512</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7957,8 +7971,8 @@
       <c r="D177" s="4">
         <v>127</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.7150000000000001</v>
+      <c r="E177" s="5">
+        <v>1715</v>
       </c>
       <c r="F177" s="4">
         <v>421</v>
@@ -7966,8 +7980,8 @@
       <c r="G177" s="4">
         <v>699</v>
       </c>
-      <c r="H177" s="4">
-        <v>1.1619999999999999</v>
+      <c r="H177" s="5">
+        <v>1162</v>
       </c>
       <c r="I177" s="4">
         <v>383</v>
@@ -7981,8 +7995,8 @@
       <c r="L177" s="4">
         <v>55</v>
       </c>
-      <c r="M177" s="5">
-        <v>4.6669999999999998</v>
+      <c r="M177" s="6">
+        <v>4667</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8007,8 +8021,8 @@
       <c r="G178" s="4">
         <v>693</v>
       </c>
-      <c r="H178" s="4">
-        <v>1.341</v>
+      <c r="H178" s="5">
+        <v>1341</v>
       </c>
       <c r="I178" s="4">
         <v>596</v>
@@ -8022,8 +8036,8 @@
       <c r="L178" s="4">
         <v>56</v>
       </c>
-      <c r="M178" s="5">
-        <v>3.9529999999999998</v>
+      <c r="M178" s="6">
+        <v>3953</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8037,8 +8051,8 @@
       <c r="D179" s="4">
         <v>217</v>
       </c>
-      <c r="E179" s="4">
-        <v>2.1579999999999999</v>
+      <c r="E179" s="5">
+        <v>2158</v>
       </c>
       <c r="F179" s="4">
         <v>232</v>
@@ -8061,8 +8075,8 @@
       <c r="L179" s="4">
         <v>59</v>
       </c>
-      <c r="M179" s="5">
-        <v>4.4459999999999997</v>
+      <c r="M179" s="6">
+        <v>4446</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8087,8 +8101,8 @@
       <c r="G180" s="4">
         <v>596</v>
       </c>
-      <c r="H180" s="4">
-        <v>1.1160000000000001</v>
+      <c r="H180" s="5">
+        <v>1116</v>
       </c>
       <c r="I180" s="4">
         <v>520</v>
@@ -8102,8 +8116,8 @@
       <c r="L180" s="4">
         <v>52</v>
       </c>
-      <c r="M180" s="5">
-        <v>3.51</v>
+      <c r="M180" s="6">
+        <v>3510</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8117,8 +8131,8 @@
       <c r="D181" s="4">
         <v>329</v>
       </c>
-      <c r="E181" s="4">
-        <v>2.0110000000000001</v>
+      <c r="E181" s="5">
+        <v>2011</v>
       </c>
       <c r="F181" s="4">
         <v>103</v>
@@ -8141,8 +8155,8 @@
       <c r="L181" s="4">
         <v>58</v>
       </c>
-      <c r="M181" s="5">
-        <v>3.72</v>
+      <c r="M181" s="6">
+        <v>3720</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8182,8 +8196,8 @@
       <c r="L182" s="4">
         <v>34</v>
       </c>
-      <c r="M182" s="5">
-        <v>2.33</v>
+      <c r="M182" s="6">
+        <v>2330</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8197,8 +8211,8 @@
       <c r="D183" s="4">
         <v>365</v>
       </c>
-      <c r="E183" s="4">
-        <v>1.3380000000000001</v>
+      <c r="E183" s="5">
+        <v>1338</v>
       </c>
       <c r="F183" s="4">
         <v>41</v>
@@ -8221,8 +8235,8 @@
       <c r="L183" s="4">
         <v>50</v>
       </c>
-      <c r="M183" s="5">
-        <v>2.528</v>
+      <c r="M183" s="6">
+        <v>2528</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8238,8 +8252,8 @@
       <c r="D184" s="4">
         <v>112</v>
       </c>
-      <c r="E184" s="4">
-        <v>1.1299999999999999</v>
+      <c r="E184" s="5">
+        <v>1130</v>
       </c>
       <c r="F184" s="4">
         <v>21</v>
@@ -8262,8 +8276,8 @@
       <c r="L184" s="4">
         <v>53</v>
       </c>
-      <c r="M184" s="5">
-        <v>2.3220000000000001</v>
+      <c r="M184" s="6">
+        <v>2322</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8277,8 +8291,8 @@
       <c r="D185" s="4">
         <v>622</v>
       </c>
-      <c r="E185" s="4">
-        <v>1.4850000000000001</v>
+      <c r="E185" s="5">
+        <v>1485</v>
       </c>
       <c r="F185" s="4">
         <v>10</v>
@@ -8301,54 +8315,54 @@
       <c r="L185" s="4">
         <v>60</v>
       </c>
-      <c r="M185" s="5">
-        <v>3.34</v>
+      <c r="M185" s="6">
+        <v>3340</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="D186" s="5">
-        <v>2.391</v>
-      </c>
-      <c r="E186" s="5">
-        <v>18.945</v>
-      </c>
-      <c r="F186" s="5">
-        <v>7.3369999999999997</v>
-      </c>
-      <c r="G186" s="5">
-        <v>16.577000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>48.366</v>
-      </c>
-      <c r="I186" s="5">
-        <v>32.106000000000002</v>
-      </c>
-      <c r="J186" s="5">
-        <v>3.004</v>
-      </c>
-      <c r="K186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
+        <v>1311</v>
+      </c>
+      <c r="D186" s="6">
+        <v>2391</v>
+      </c>
+      <c r="E186" s="6">
+        <v>18945</v>
+      </c>
+      <c r="F186" s="6">
+        <v>7337</v>
+      </c>
+      <c r="G186" s="6">
+        <v>16577</v>
+      </c>
+      <c r="H186" s="6">
+        <v>48366</v>
+      </c>
+      <c r="I186" s="6">
+        <v>32106</v>
+      </c>
+      <c r="J186" s="6">
+        <v>3004</v>
+      </c>
+      <c r="K186" s="8">
         <v>298</v>
       </c>
-      <c r="L186" s="5">
-        <v>1.236</v>
-      </c>
-      <c r="M186" s="5">
-        <v>131.571</v>
+      <c r="L186" s="6">
+        <v>1236</v>
+      </c>
+      <c r="M186" s="6">
+        <v>131571</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8402,14 +8416,14 @@
       <c r="F188" s="4">
         <v>10</v>
       </c>
-      <c r="G188" s="4">
-        <v>3.3109999999999999</v>
-      </c>
-      <c r="H188" s="4">
-        <v>11.741</v>
-      </c>
-      <c r="I188" s="4">
-        <v>2.694</v>
+      <c r="G188" s="5">
+        <v>3311</v>
+      </c>
+      <c r="H188" s="5">
+        <v>11741</v>
+      </c>
+      <c r="I188" s="5">
+        <v>2694</v>
       </c>
       <c r="J188" s="4">
         <v>26</v>
@@ -8420,8 +8434,8 @@
       <c r="L188" s="4">
         <v>134</v>
       </c>
-      <c r="M188" s="5">
-        <v>18.033000000000001</v>
+      <c r="M188" s="6">
+        <v>18033</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8441,14 +8455,14 @@
       <c r="F189" s="4">
         <v>4</v>
       </c>
-      <c r="G189" s="4">
-        <v>2.6030000000000002</v>
-      </c>
-      <c r="H189" s="4">
-        <v>10.72</v>
-      </c>
-      <c r="I189" s="4">
-        <v>4.008</v>
+      <c r="G189" s="5">
+        <v>2603</v>
+      </c>
+      <c r="H189" s="5">
+        <v>10720</v>
+      </c>
+      <c r="I189" s="5">
+        <v>4008</v>
       </c>
       <c r="J189" s="4">
         <v>32</v>
@@ -8459,8 +8473,8 @@
       <c r="L189" s="4">
         <v>56</v>
       </c>
-      <c r="M189" s="5">
-        <v>17.637</v>
+      <c r="M189" s="6">
+        <v>17637</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8482,14 +8496,14 @@
       <c r="F190" s="4">
         <v>103</v>
       </c>
-      <c r="G190" s="4">
-        <v>2.133</v>
-      </c>
-      <c r="H190" s="4">
-        <v>5.1059999999999999</v>
-      </c>
-      <c r="I190" s="4">
-        <v>6.2560000000000002</v>
+      <c r="G190" s="5">
+        <v>2133</v>
+      </c>
+      <c r="H190" s="5">
+        <v>5106</v>
+      </c>
+      <c r="I190" s="5">
+        <v>6256</v>
       </c>
       <c r="J190" s="4">
         <v>515</v>
@@ -8500,8 +8514,8 @@
       <c r="L190" s="4">
         <v>90</v>
       </c>
-      <c r="M190" s="5">
-        <v>14.303000000000001</v>
+      <c r="M190" s="6">
+        <v>14303</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8521,14 +8535,14 @@
       <c r="F191" s="4">
         <v>125</v>
       </c>
-      <c r="G191" s="4">
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="H191" s="4">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="I191" s="4">
-        <v>7.3869999999999996</v>
+      <c r="G191" s="5">
+        <v>2128</v>
+      </c>
+      <c r="H191" s="5">
+        <v>3189</v>
+      </c>
+      <c r="I191" s="5">
+        <v>7387</v>
       </c>
       <c r="J191" s="4">
         <v>756</v>
@@ -8539,8 +8553,8 @@
       <c r="L191" s="4">
         <v>76</v>
       </c>
-      <c r="M191" s="5">
-        <v>13.941000000000001</v>
+      <c r="M191" s="6">
+        <v>13941</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8559,17 +8573,17 @@
       <c r="E192" s="4">
         <v>37</v>
       </c>
-      <c r="F192" s="4">
-        <v>1.139</v>
-      </c>
-      <c r="G192" s="4">
-        <v>1.157</v>
-      </c>
-      <c r="H192" s="4">
-        <v>4.7590000000000003</v>
-      </c>
-      <c r="I192" s="4">
-        <v>5.6319999999999997</v>
+      <c r="F192" s="5">
+        <v>1139</v>
+      </c>
+      <c r="G192" s="5">
+        <v>1157</v>
+      </c>
+      <c r="H192" s="5">
+        <v>4759</v>
+      </c>
+      <c r="I192" s="5">
+        <v>5632</v>
       </c>
       <c r="J192" s="4">
         <v>804</v>
@@ -8580,8 +8594,8 @@
       <c r="L192" s="4">
         <v>96</v>
       </c>
-      <c r="M192" s="5">
-        <v>13.734999999999999</v>
+      <c r="M192" s="6">
+        <v>13735</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8598,17 +8612,17 @@
       <c r="E193" s="4">
         <v>99</v>
       </c>
-      <c r="F193" s="4">
-        <v>1.583</v>
-      </c>
-      <c r="G193" s="4">
-        <v>1.073</v>
-      </c>
-      <c r="H193" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="I193" s="4">
-        <v>6.03</v>
+      <c r="F193" s="5">
+        <v>1583</v>
+      </c>
+      <c r="G193" s="5">
+        <v>1073</v>
+      </c>
+      <c r="H193" s="5">
+        <v>3480</v>
+      </c>
+      <c r="I193" s="5">
+        <v>6030</v>
       </c>
       <c r="J193" s="4">
         <v>919</v>
@@ -8619,8 +8633,8 @@
       <c r="L193" s="4">
         <v>107</v>
       </c>
-      <c r="M193" s="5">
-        <v>13.534000000000001</v>
+      <c r="M193" s="6">
+        <v>13534</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8639,17 +8653,17 @@
       <c r="E194" s="4">
         <v>335</v>
       </c>
-      <c r="F194" s="4">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="G194" s="4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H194" s="4">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="I194" s="4">
-        <v>5.03</v>
+      <c r="F194" s="5">
+        <v>1628</v>
+      </c>
+      <c r="G194" s="5">
+        <v>1140</v>
+      </c>
+      <c r="H194" s="5">
+        <v>4849</v>
+      </c>
+      <c r="I194" s="5">
+        <v>5030</v>
       </c>
       <c r="J194" s="4">
         <v>879</v>
@@ -8660,8 +8674,8 @@
       <c r="L194" s="4">
         <v>79</v>
       </c>
-      <c r="M194" s="5">
-        <v>14.085000000000001</v>
+      <c r="M194" s="6">
+        <v>14085</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8675,20 +8689,20 @@
       <c r="D195" s="4">
         <v>82</v>
       </c>
-      <c r="E195" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="F195" s="4">
-        <v>1.651</v>
-      </c>
-      <c r="G195" s="4">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="H195" s="4">
-        <v>4.0170000000000003</v>
-      </c>
-      <c r="I195" s="4">
-        <v>4.9400000000000004</v>
+      <c r="E195" s="5">
+        <v>1360</v>
+      </c>
+      <c r="F195" s="5">
+        <v>1651</v>
+      </c>
+      <c r="G195" s="5">
+        <v>1388</v>
+      </c>
+      <c r="H195" s="5">
+        <v>4017</v>
+      </c>
+      <c r="I195" s="5">
+        <v>4940</v>
       </c>
       <c r="J195" s="4">
         <v>838</v>
@@ -8699,8 +8713,8 @@
       <c r="L195" s="4">
         <v>88</v>
       </c>
-      <c r="M195" s="5">
-        <v>14.534000000000001</v>
+      <c r="M195" s="6">
+        <v>14534</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8719,17 +8733,17 @@
       <c r="E196" s="4">
         <v>769</v>
       </c>
-      <c r="F196" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="G196" s="4">
-        <v>2.0830000000000002</v>
-      </c>
-      <c r="H196" s="4">
-        <v>5.6230000000000002</v>
-      </c>
-      <c r="I196" s="4">
-        <v>4.0590000000000002</v>
+      <c r="F196" s="5">
+        <v>1572</v>
+      </c>
+      <c r="G196" s="5">
+        <v>2083</v>
+      </c>
+      <c r="H196" s="5">
+        <v>5623</v>
+      </c>
+      <c r="I196" s="5">
+        <v>4059</v>
       </c>
       <c r="J196" s="4">
         <v>843</v>
@@ -8740,8 +8754,8 @@
       <c r="L196" s="4">
         <v>82</v>
       </c>
-      <c r="M196" s="5">
-        <v>15.257999999999999</v>
+      <c r="M196" s="6">
+        <v>15258</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8755,20 +8769,20 @@
       <c r="D197" s="4">
         <v>87</v>
       </c>
-      <c r="E197" s="4">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="F197" s="4">
-        <v>1.333</v>
-      </c>
-      <c r="G197" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="H197" s="4">
-        <v>4.5890000000000004</v>
-      </c>
-      <c r="I197" s="4">
-        <v>3.9470000000000001</v>
+      <c r="E197" s="5">
+        <v>2362</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1333</v>
+      </c>
+      <c r="G197" s="5">
+        <v>2196</v>
+      </c>
+      <c r="H197" s="5">
+        <v>4589</v>
+      </c>
+      <c r="I197" s="5">
+        <v>3947</v>
       </c>
       <c r="J197" s="4">
         <v>784</v>
@@ -8779,8 +8793,8 @@
       <c r="L197" s="4">
         <v>70</v>
       </c>
-      <c r="M197" s="5">
-        <v>15.613</v>
+      <c r="M197" s="6">
+        <v>15613</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8796,20 +8810,20 @@
       <c r="D198" s="4">
         <v>23</v>
       </c>
-      <c r="E198" s="4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F198" s="4">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="G198" s="4">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="H198" s="4">
-        <v>4.7140000000000004</v>
-      </c>
-      <c r="I198" s="4">
-        <v>3.1920000000000002</v>
+      <c r="E198" s="5">
+        <v>1120</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1814</v>
+      </c>
+      <c r="G198" s="5">
+        <v>1876</v>
+      </c>
+      <c r="H198" s="5">
+        <v>4714</v>
+      </c>
+      <c r="I198" s="5">
+        <v>3192</v>
       </c>
       <c r="J198" s="4">
         <v>638</v>
@@ -8820,8 +8834,8 @@
       <c r="L198" s="4">
         <v>85</v>
       </c>
-      <c r="M198" s="5">
-        <v>13.657</v>
+      <c r="M198" s="6">
+        <v>13657</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8835,20 +8849,20 @@
       <c r="D199" s="4">
         <v>91</v>
       </c>
-      <c r="E199" s="4">
-        <v>2.8029999999999999</v>
-      </c>
-      <c r="F199" s="4">
-        <v>1.619</v>
-      </c>
-      <c r="G199" s="4">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="H199" s="4">
-        <v>4.0019999999999998</v>
-      </c>
-      <c r="I199" s="4">
-        <v>2.7879999999999998</v>
+      <c r="E199" s="5">
+        <v>2803</v>
+      </c>
+      <c r="F199" s="5">
+        <v>1619</v>
+      </c>
+      <c r="G199" s="5">
+        <v>2065</v>
+      </c>
+      <c r="H199" s="5">
+        <v>4002</v>
+      </c>
+      <c r="I199" s="5">
+        <v>2788</v>
       </c>
       <c r="J199" s="4">
         <v>415</v>
@@ -8859,8 +8873,8 @@
       <c r="L199" s="4">
         <v>93</v>
       </c>
-      <c r="M199" s="5">
-        <v>14.071999999999999</v>
+      <c r="M199" s="6">
+        <v>14072</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8876,20 +8890,20 @@
       <c r="D200" s="4">
         <v>35</v>
       </c>
-      <c r="E200" s="4">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="F200" s="4">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="G200" s="4">
-        <v>2.0209999999999999</v>
-      </c>
-      <c r="H200" s="4">
-        <v>3.7090000000000001</v>
-      </c>
-      <c r="I200" s="4">
-        <v>2.3879999999999999</v>
+      <c r="E200" s="5">
+        <v>1273</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1755</v>
+      </c>
+      <c r="G200" s="5">
+        <v>2021</v>
+      </c>
+      <c r="H200" s="5">
+        <v>3709</v>
+      </c>
+      <c r="I200" s="5">
+        <v>2388</v>
       </c>
       <c r="J200" s="4">
         <v>397</v>
@@ -8900,8 +8914,8 @@
       <c r="L200" s="4">
         <v>82</v>
       </c>
-      <c r="M200" s="5">
-        <v>11.833</v>
+      <c r="M200" s="6">
+        <v>11833</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8915,20 +8929,20 @@
       <c r="D201" s="4">
         <v>158</v>
       </c>
-      <c r="E201" s="4">
-        <v>3.01</v>
-      </c>
-      <c r="F201" s="4">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="G201" s="4">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="H201" s="4">
-        <v>3.0739999999999998</v>
-      </c>
-      <c r="I201" s="4">
-        <v>1.734</v>
+      <c r="E201" s="5">
+        <v>3010</v>
+      </c>
+      <c r="F201" s="5">
+        <v>1535</v>
+      </c>
+      <c r="G201" s="5">
+        <v>1945</v>
+      </c>
+      <c r="H201" s="5">
+        <v>3074</v>
+      </c>
+      <c r="I201" s="5">
+        <v>1734</v>
       </c>
       <c r="J201" s="4">
         <v>235</v>
@@ -8939,8 +8953,8 @@
       <c r="L201" s="4">
         <v>77</v>
       </c>
-      <c r="M201" s="5">
-        <v>12.007</v>
+      <c r="M201" s="6">
+        <v>12007</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8956,20 +8970,20 @@
       <c r="D202" s="4">
         <v>31</v>
       </c>
-      <c r="E202" s="4">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="F202" s="4">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="G202" s="4">
-        <v>1.833</v>
-      </c>
-      <c r="H202" s="4">
-        <v>2.8969999999999998</v>
-      </c>
-      <c r="I202" s="4">
-        <v>1.5720000000000001</v>
+      <c r="E202" s="5">
+        <v>1582</v>
+      </c>
+      <c r="F202" s="5">
+        <v>1574</v>
+      </c>
+      <c r="G202" s="5">
+        <v>1833</v>
+      </c>
+      <c r="H202" s="5">
+        <v>2897</v>
+      </c>
+      <c r="I202" s="5">
+        <v>1572</v>
       </c>
       <c r="J202" s="4">
         <v>239</v>
@@ -8980,8 +8994,8 @@
       <c r="L202" s="4">
         <v>85</v>
       </c>
-      <c r="M202" s="5">
-        <v>9.9559999999999995</v>
+      <c r="M202" s="6">
+        <v>9956</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8995,20 +9009,20 @@
       <c r="D203" s="4">
         <v>294</v>
       </c>
-      <c r="E203" s="4">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="F203" s="4">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="G203" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="H203" s="4">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="I203" s="4">
-        <v>1.125</v>
+      <c r="E203" s="5">
+        <v>3587</v>
+      </c>
+      <c r="F203" s="5">
+        <v>1096</v>
+      </c>
+      <c r="G203" s="5">
+        <v>1490</v>
+      </c>
+      <c r="H203" s="5">
+        <v>2362</v>
+      </c>
+      <c r="I203" s="5">
+        <v>1125</v>
       </c>
       <c r="J203" s="4">
         <v>128</v>
@@ -9019,8 +9033,8 @@
       <c r="L203" s="4">
         <v>87</v>
       </c>
-      <c r="M203" s="5">
-        <v>10.423999999999999</v>
+      <c r="M203" s="6">
+        <v>10424</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9036,20 +9050,20 @@
       <c r="D204" s="4">
         <v>61</v>
       </c>
-      <c r="E204" s="4">
-        <v>2.0710000000000002</v>
+      <c r="E204" s="5">
+        <v>2071</v>
       </c>
       <c r="F204" s="4">
         <v>822</v>
       </c>
-      <c r="G204" s="4">
-        <v>1.232</v>
-      </c>
-      <c r="H204" s="4">
-        <v>2.347</v>
-      </c>
-      <c r="I204" s="4">
-        <v>1.131</v>
+      <c r="G204" s="5">
+        <v>1232</v>
+      </c>
+      <c r="H204" s="5">
+        <v>2347</v>
+      </c>
+      <c r="I204" s="5">
+        <v>1131</v>
       </c>
       <c r="J204" s="4">
         <v>101</v>
@@ -9060,8 +9074,8 @@
       <c r="L204" s="4">
         <v>57</v>
       </c>
-      <c r="M204" s="5">
-        <v>7.9260000000000002</v>
+      <c r="M204" s="6">
+        <v>7926</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9075,8 +9089,8 @@
       <c r="D205" s="4">
         <v>467</v>
       </c>
-      <c r="E205" s="4">
-        <v>3.831</v>
+      <c r="E205" s="5">
+        <v>3831</v>
       </c>
       <c r="F205" s="4">
         <v>550</v>
@@ -9084,8 +9098,8 @@
       <c r="G205" s="4">
         <v>889</v>
       </c>
-      <c r="H205" s="4">
-        <v>1.7390000000000001</v>
+      <c r="H205" s="5">
+        <v>1739</v>
       </c>
       <c r="I205" s="4">
         <v>702</v>
@@ -9099,8 +9113,8 @@
       <c r="L205" s="4">
         <v>72</v>
       </c>
-      <c r="M205" s="5">
-        <v>8.6620000000000008</v>
+      <c r="M205" s="6">
+        <v>8662</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9116,8 +9130,8 @@
       <c r="D206" s="4">
         <v>113</v>
       </c>
-      <c r="E206" s="4">
-        <v>2.556</v>
+      <c r="E206" s="5">
+        <v>2556</v>
       </c>
       <c r="F206" s="4">
         <v>306</v>
@@ -9125,11 +9139,11 @@
       <c r="G206" s="4">
         <v>887</v>
       </c>
-      <c r="H206" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="I206" s="4">
-        <v>1.0900000000000001</v>
+      <c r="H206" s="5">
+        <v>1411</v>
+      </c>
+      <c r="I206" s="5">
+        <v>1090</v>
       </c>
       <c r="J206" s="4">
         <v>73</v>
@@ -9140,8 +9154,8 @@
       <c r="L206" s="4">
         <v>66</v>
       </c>
-      <c r="M206" s="5">
-        <v>6.5940000000000003</v>
+      <c r="M206" s="6">
+        <v>6594</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9155,8 +9169,8 @@
       <c r="D207" s="4">
         <v>668</v>
       </c>
-      <c r="E207" s="4">
-        <v>3.4990000000000001</v>
+      <c r="E207" s="5">
+        <v>3499</v>
       </c>
       <c r="F207" s="4">
         <v>253</v>
@@ -9164,8 +9178,8 @@
       <c r="G207" s="4">
         <v>638</v>
       </c>
-      <c r="H207" s="4">
-        <v>1.1020000000000001</v>
+      <c r="H207" s="5">
+        <v>1102</v>
       </c>
       <c r="I207" s="4">
         <v>616</v>
@@ -9179,8 +9193,8 @@
       <c r="L207" s="4">
         <v>46</v>
       </c>
-      <c r="M207" s="5">
-        <v>7.3449999999999998</v>
+      <c r="M207" s="6">
+        <v>7345</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9196,8 +9210,8 @@
       <c r="D208" s="4">
         <v>124</v>
       </c>
-      <c r="E208" s="4">
-        <v>2.21</v>
+      <c r="E208" s="5">
+        <v>2210</v>
       </c>
       <c r="F208" s="4">
         <v>96</v>
@@ -9220,8 +9234,8 @@
       <c r="L208" s="4">
         <v>40</v>
       </c>
-      <c r="M208" s="5">
-        <v>4.54</v>
+      <c r="M208" s="6">
+        <v>4540</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9235,8 +9249,8 @@
       <c r="D209" s="4">
         <v>724</v>
       </c>
-      <c r="E209" s="4">
-        <v>2.6280000000000001</v>
+      <c r="E209" s="5">
+        <v>2628</v>
       </c>
       <c r="F209" s="4">
         <v>82</v>
@@ -9259,8 +9273,8 @@
       <c r="L209" s="4">
         <v>48</v>
       </c>
-      <c r="M209" s="5">
-        <v>5.3620000000000001</v>
+      <c r="M209" s="6">
+        <v>5362</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9276,8 +9290,8 @@
       <c r="D210" s="4">
         <v>416</v>
       </c>
-      <c r="E210" s="4">
-        <v>2.5089999999999999</v>
+      <c r="E210" s="5">
+        <v>2509</v>
       </c>
       <c r="F210" s="4">
         <v>43</v>
@@ -9300,8 +9314,8 @@
       <c r="L210" s="4">
         <v>46</v>
       </c>
-      <c r="M210" s="5">
-        <v>5.0789999999999997</v>
+      <c r="M210" s="6">
+        <v>5079</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9309,14 +9323,14 @@
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="D211" s="4">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="E211" s="4">
-        <v>3.2309999999999999</v>
+      <c r="C211" s="5">
+        <v>1495</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1249</v>
+      </c>
+      <c r="E211" s="5">
+        <v>3231</v>
       </c>
       <c r="F211" s="4">
         <v>38</v>
@@ -9339,54 +9353,54 @@
       <c r="L211" s="4">
         <v>73</v>
       </c>
-      <c r="M211" s="5">
-        <v>7.2539999999999996</v>
+      <c r="M211" s="6">
+        <v>7254</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="D212" s="5">
-        <v>5.2240000000000002</v>
-      </c>
-      <c r="E212" s="5">
-        <v>41.213000000000001</v>
-      </c>
-      <c r="F212" s="5">
-        <v>20.731000000000002</v>
-      </c>
-      <c r="G212" s="5">
-        <v>35.798999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>88.021000000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>68.174999999999997</v>
-      </c>
-      <c r="J212" s="5">
-        <v>8.8640000000000008</v>
-      </c>
-      <c r="K212" s="5">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="L212" s="5">
-        <v>1.835</v>
-      </c>
-      <c r="M212" s="5">
-        <v>275.38400000000001</v>
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
+        <v>3833</v>
+      </c>
+      <c r="D212" s="6">
+        <v>5224</v>
+      </c>
+      <c r="E212" s="6">
+        <v>41213</v>
+      </c>
+      <c r="F212" s="6">
+        <v>20731</v>
+      </c>
+      <c r="G212" s="6">
+        <v>35799</v>
+      </c>
+      <c r="H212" s="6">
+        <v>88021</v>
+      </c>
+      <c r="I212" s="6">
+        <v>68175</v>
+      </c>
+      <c r="J212" s="6">
+        <v>8864</v>
+      </c>
+      <c r="K212" s="6">
+        <v>1689</v>
+      </c>
+      <c r="L212" s="6">
+        <v>1835</v>
+      </c>
+      <c r="M212" s="6">
+        <v>275384</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9443,8 +9457,8 @@
       <c r="G214" s="4">
         <v>470</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.232</v>
+      <c r="H214" s="5">
+        <v>1232</v>
       </c>
       <c r="I214" s="4">
         <v>269</v>
@@ -9458,8 +9472,8 @@
       <c r="L214" s="4">
         <v>13</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.0179999999999998</v>
+      <c r="M214" s="6">
+        <v>2018</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9482,8 +9496,8 @@
       <c r="G215" s="4">
         <v>359</v>
       </c>
-      <c r="H215" s="4">
-        <v>1.095</v>
+      <c r="H215" s="5">
+        <v>1095</v>
       </c>
       <c r="I215" s="4">
         <v>412</v>
@@ -9497,8 +9511,8 @@
       <c r="L215" s="4">
         <v>6</v>
       </c>
-      <c r="M215" s="5">
-        <v>1.919</v>
+      <c r="M215" s="6">
+        <v>1919</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9538,8 +9552,8 @@
       <c r="L216" s="4">
         <v>5</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.63</v>
+      <c r="M216" s="6">
+        <v>1630</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9577,8 +9591,8 @@
       <c r="L217" s="4">
         <v>7</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.3640000000000001</v>
+      <c r="M217" s="6">
+        <v>1364</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9618,8 +9632,8 @@
       <c r="L218" s="4">
         <v>9</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.522</v>
+      <c r="M218" s="6">
+        <v>1522</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9657,8 +9671,8 @@
       <c r="L219" s="4">
         <v>9</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.3320000000000001</v>
+      <c r="M219" s="6">
+        <v>1332</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9698,8 +9712,8 @@
       <c r="L220" s="4">
         <v>10</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.4890000000000001</v>
+      <c r="M220" s="6">
+        <v>1489</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9737,8 +9751,8 @@
       <c r="L221" s="4">
         <v>5</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.268</v>
+      <c r="M221" s="6">
+        <v>1268</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9778,8 +9792,8 @@
       <c r="L222" s="4">
         <v>8</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.6180000000000001</v>
+      <c r="M222" s="6">
+        <v>1618</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9817,8 +9831,8 @@
       <c r="L223" s="4">
         <v>4</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.3069999999999999</v>
+      <c r="M223" s="6">
+        <v>1307</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9858,8 +9872,8 @@
       <c r="L224" s="4">
         <v>16</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.5409999999999999</v>
+      <c r="M224" s="6">
+        <v>1541</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9897,8 +9911,8 @@
       <c r="L225" s="4">
         <v>7</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.3380000000000001</v>
+      <c r="M225" s="6">
+        <v>1338</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9938,8 +9952,8 @@
       <c r="L226" s="4">
         <v>10</v>
       </c>
-      <c r="M226" s="5">
-        <v>1.6910000000000001</v>
+      <c r="M226" s="6">
+        <v>1691</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9977,8 +9991,8 @@
       <c r="L227" s="4">
         <v>15</v>
       </c>
-      <c r="M227" s="5">
-        <v>1.677</v>
+      <c r="M227" s="6">
+        <v>1677</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10018,8 +10032,8 @@
       <c r="L228" s="4">
         <v>18</v>
       </c>
-      <c r="M228" s="5">
-        <v>1.8979999999999999</v>
+      <c r="M228" s="6">
+        <v>1898</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10033,8 +10047,8 @@
       <c r="D229" s="4">
         <v>98</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.101</v>
+      <c r="E229" s="5">
+        <v>1101</v>
       </c>
       <c r="F229" s="4">
         <v>178</v>
@@ -10057,8 +10071,8 @@
       <c r="L229" s="4">
         <v>24</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.8320000000000001</v>
+      <c r="M229" s="6">
+        <v>1832</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10074,8 +10088,8 @@
       <c r="D230" s="4">
         <v>19</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.0880000000000001</v>
+      <c r="E230" s="5">
+        <v>1088</v>
       </c>
       <c r="F230" s="4">
         <v>182</v>
@@ -10098,8 +10112,8 @@
       <c r="L230" s="4">
         <v>13</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.956</v>
+      <c r="M230" s="6">
+        <v>1956</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10113,8 +10127,8 @@
       <c r="D231" s="4">
         <v>201</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.238</v>
+      <c r="E231" s="5">
+        <v>1238</v>
       </c>
       <c r="F231" s="4">
         <v>93</v>
@@ -10137,8 +10151,8 @@
       <c r="L231" s="4">
         <v>9</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.9550000000000001</v>
+      <c r="M231" s="6">
+        <v>1955</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10154,8 +10168,8 @@
       <c r="D232" s="4">
         <v>47</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.0549999999999999</v>
+      <c r="E232" s="5">
+        <v>1055</v>
       </c>
       <c r="F232" s="4">
         <v>82</v>
@@ -10178,8 +10192,8 @@
       <c r="L232" s="4">
         <v>15</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.6679999999999999</v>
+      <c r="M232" s="6">
+        <v>1668</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10217,8 +10231,8 @@
       <c r="L233" s="4">
         <v>16</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.55</v>
+      <c r="M233" s="6">
+        <v>1550</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10258,8 +10272,8 @@
       <c r="L234" s="4">
         <v>11</v>
       </c>
-      <c r="M234" s="5">
-        <v>1.149</v>
+      <c r="M234" s="6">
+        <v>1149</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10297,8 +10311,8 @@
       <c r="L235" s="4">
         <v>18</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.242</v>
+      <c r="M235" s="6">
+        <v>1242</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10338,8 +10352,8 @@
       <c r="L236" s="4">
         <v>18</v>
       </c>
-      <c r="M236" s="5">
-        <v>1.589</v>
+      <c r="M236" s="6">
+        <v>1589</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10377,54 +10391,54 @@
       <c r="L237" s="4">
         <v>13</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.9</v>
+      <c r="M237" s="6">
+        <v>1900</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="D238" s="5">
-        <v>2.5139999999999998</v>
-      </c>
-      <c r="E238" s="5">
-        <v>12.202999999999999</v>
-      </c>
-      <c r="F238" s="5">
-        <v>3.3620000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>5.3159999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>7.8789999999999996</v>
-      </c>
-      <c r="I238" s="5">
-        <v>4.8680000000000003</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>1632</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2514</v>
+      </c>
+      <c r="E238" s="6">
+        <v>12203</v>
+      </c>
+      <c r="F238" s="6">
+        <v>3362</v>
+      </c>
+      <c r="G238" s="6">
+        <v>5316</v>
+      </c>
+      <c r="H238" s="6">
+        <v>7879</v>
+      </c>
+      <c r="I238" s="6">
+        <v>4868</v>
+      </c>
+      <c r="J238" s="8">
         <v>360</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>40</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>279</v>
       </c>
-      <c r="M238" s="5">
-        <v>38.453000000000003</v>
+      <c r="M238" s="6">
+        <v>38453</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10481,8 +10495,8 @@
       <c r="G240" s="4">
         <v>469</v>
       </c>
-      <c r="H240" s="4">
-        <v>1.9379999999999999</v>
+      <c r="H240" s="5">
+        <v>1938</v>
       </c>
       <c r="I240" s="4">
         <v>439</v>
@@ -10496,8 +10510,8 @@
       <c r="L240" s="4">
         <v>23</v>
       </c>
-      <c r="M240" s="5">
-        <v>2.887</v>
+      <c r="M240" s="6">
+        <v>2887</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10520,8 +10534,8 @@
       <c r="G241" s="4">
         <v>416</v>
       </c>
-      <c r="H241" s="4">
-        <v>1.681</v>
+      <c r="H241" s="5">
+        <v>1681</v>
       </c>
       <c r="I241" s="4">
         <v>624</v>
@@ -10535,8 +10549,8 @@
       <c r="L241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M241" s="5">
-        <v>2.7679999999999998</v>
+      <c r="M241" s="6">
+        <v>2768</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10576,8 +10590,8 @@
       <c r="L242" s="4">
         <v>15</v>
       </c>
-      <c r="M242" s="5">
-        <v>2.323</v>
+      <c r="M242" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10603,8 +10617,8 @@
       <c r="H243" s="4">
         <v>501</v>
       </c>
-      <c r="I243" s="4">
-        <v>1.0209999999999999</v>
+      <c r="I243" s="5">
+        <v>1021</v>
       </c>
       <c r="J243" s="4">
         <v>62</v>
@@ -10615,8 +10629,8 @@
       <c r="L243" s="4">
         <v>8</v>
       </c>
-      <c r="M243" s="5">
-        <v>1.976</v>
+      <c r="M243" s="6">
+        <v>1976</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10656,8 +10670,8 @@
       <c r="L244" s="4">
         <v>7</v>
       </c>
-      <c r="M244" s="5">
-        <v>2.073</v>
+      <c r="M244" s="6">
+        <v>2073</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10695,8 +10709,8 @@
       <c r="L245" s="4">
         <v>22</v>
       </c>
-      <c r="M245" s="5">
-        <v>1.893</v>
+      <c r="M245" s="6">
+        <v>1893</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10736,8 +10750,8 @@
       <c r="L246" s="4">
         <v>6</v>
       </c>
-      <c r="M246" s="5">
-        <v>2.0720000000000001</v>
+      <c r="M246" s="6">
+        <v>2072</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10775,8 +10789,8 @@
       <c r="L247" s="4">
         <v>19</v>
       </c>
-      <c r="M247" s="5">
-        <v>1.9430000000000001</v>
+      <c r="M247" s="6">
+        <v>1943</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10816,8 +10830,8 @@
       <c r="L248" s="4">
         <v>14</v>
       </c>
-      <c r="M248" s="5">
-        <v>2.2469999999999999</v>
+      <c r="M248" s="6">
+        <v>2247</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10855,8 +10869,8 @@
       <c r="L249" s="4">
         <v>12</v>
       </c>
-      <c r="M249" s="5">
-        <v>2.27</v>
+      <c r="M249" s="6">
+        <v>2270</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10896,8 +10910,8 @@
       <c r="L250" s="4">
         <v>12</v>
       </c>
-      <c r="M250" s="5">
-        <v>2.1320000000000001</v>
+      <c r="M250" s="6">
+        <v>2132</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10935,8 +10949,8 @@
       <c r="L251" s="4">
         <v>18</v>
       </c>
-      <c r="M251" s="5">
-        <v>2.0750000000000002</v>
+      <c r="M251" s="6">
+        <v>2075</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10976,8 +10990,8 @@
       <c r="L252" s="4">
         <v>16</v>
       </c>
-      <c r="M252" s="5">
-        <v>1.8839999999999999</v>
+      <c r="M252" s="6">
+        <v>1884</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11015,8 +11029,8 @@
       <c r="L253" s="4">
         <v>15</v>
       </c>
-      <c r="M253" s="5">
-        <v>2.024</v>
+      <c r="M253" s="6">
+        <v>2024</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11056,8 +11070,8 @@
       <c r="L254" s="4">
         <v>24</v>
       </c>
-      <c r="M254" s="5">
-        <v>1.7350000000000001</v>
+      <c r="M254" s="6">
+        <v>1735</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11095,8 +11109,8 @@
       <c r="L255" s="4">
         <v>27</v>
       </c>
-      <c r="M255" s="5">
-        <v>1.873</v>
+      <c r="M255" s="6">
+        <v>1873</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11136,8 +11150,8 @@
       <c r="L256" s="4">
         <v>29</v>
       </c>
-      <c r="M256" s="5">
-        <v>1.619</v>
+      <c r="M256" s="6">
+        <v>1619</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11175,8 +11189,8 @@
       <c r="L257" s="4">
         <v>28</v>
       </c>
-      <c r="M257" s="5">
-        <v>1.901</v>
+      <c r="M257" s="6">
+        <v>1901</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11216,8 +11230,8 @@
       <c r="L258" s="4">
         <v>32</v>
       </c>
-      <c r="M258" s="5">
-        <v>1.456</v>
+      <c r="M258" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11255,8 +11269,8 @@
       <c r="L259" s="4">
         <v>25</v>
       </c>
-      <c r="M259" s="5">
-        <v>1.58</v>
+      <c r="M259" s="6">
+        <v>1580</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11296,8 +11310,8 @@
       <c r="L260" s="4">
         <v>29</v>
       </c>
-      <c r="M260" s="5">
-        <v>1.052</v>
+      <c r="M260" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11335,8 +11349,8 @@
       <c r="L261" s="4">
         <v>21</v>
       </c>
-      <c r="M261" s="5">
-        <v>1.147</v>
+      <c r="M261" s="6">
+        <v>1147</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11376,8 +11390,8 @@
       <c r="L262" s="4">
         <v>40</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.264</v>
+      <c r="M262" s="6">
+        <v>1264</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11415,54 +11429,54 @@
       <c r="L263" s="4">
         <v>37</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.7749999999999999</v>
+      <c r="M263" s="6">
+        <v>1775</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>730</v>
       </c>
-      <c r="D264" s="5">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>9.2669999999999995</v>
-      </c>
-      <c r="F264" s="5">
-        <v>3.0760000000000001</v>
-      </c>
-      <c r="G264" s="5">
-        <v>6.0679999999999996</v>
-      </c>
-      <c r="H264" s="5">
-        <v>15.005000000000001</v>
-      </c>
-      <c r="I264" s="5">
-        <v>9.5350000000000001</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="D264" s="6">
+        <v>1049</v>
+      </c>
+      <c r="E264" s="6">
+        <v>9267</v>
+      </c>
+      <c r="F264" s="6">
+        <v>3076</v>
+      </c>
+      <c r="G264" s="6">
+        <v>6068</v>
+      </c>
+      <c r="H264" s="6">
+        <v>15005</v>
+      </c>
+      <c r="I264" s="6">
+        <v>9535</v>
+      </c>
+      <c r="J264" s="8">
         <v>688</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>72</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>479</v>
       </c>
-      <c r="M264" s="5">
-        <v>45.969000000000001</v>
+      <c r="M264" s="6">
+        <v>45969</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11516,11 +11530,11 @@
       <c r="F266" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G266" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="H266" s="4">
-        <v>4.5999999999999996</v>
+      <c r="G266" s="5">
+        <v>1290</v>
+      </c>
+      <c r="H266" s="5">
+        <v>4600</v>
       </c>
       <c r="I266" s="4">
         <v>988</v>
@@ -11534,8 +11548,8 @@
       <c r="L266" s="4">
         <v>69</v>
       </c>
-      <c r="M266" s="5">
-        <v>6.9790000000000001</v>
+      <c r="M266" s="6">
+        <v>6979</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11555,14 +11569,14 @@
       <c r="F267" s="4">
         <v>2</v>
       </c>
-      <c r="G267" s="4">
-        <v>1.083</v>
-      </c>
-      <c r="H267" s="4">
-        <v>4.0730000000000004</v>
-      </c>
-      <c r="I267" s="4">
-        <v>1.3879999999999999</v>
+      <c r="G267" s="5">
+        <v>1083</v>
+      </c>
+      <c r="H267" s="5">
+        <v>4073</v>
+      </c>
+      <c r="I267" s="5">
+        <v>1388</v>
       </c>
       <c r="J267" s="4">
         <v>6</v>
@@ -11573,8 +11587,8 @@
       <c r="L267" s="4">
         <v>20</v>
       </c>
-      <c r="M267" s="5">
-        <v>6.6280000000000001</v>
+      <c r="M267" s="6">
+        <v>6628</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11599,11 +11613,11 @@
       <c r="G268" s="4">
         <v>916</v>
       </c>
-      <c r="H268" s="4">
-        <v>2.165</v>
-      </c>
-      <c r="I268" s="4">
-        <v>2.2509999999999999</v>
+      <c r="H268" s="5">
+        <v>2165</v>
+      </c>
+      <c r="I268" s="5">
+        <v>2251</v>
       </c>
       <c r="J268" s="4">
         <v>95</v>
@@ -11614,8 +11628,8 @@
       <c r="L268" s="4">
         <v>34</v>
       </c>
-      <c r="M268" s="5">
-        <v>5.54</v>
+      <c r="M268" s="6">
+        <v>5540</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11638,11 +11652,11 @@
       <c r="G269" s="4">
         <v>971</v>
       </c>
-      <c r="H269" s="4">
-        <v>1.538</v>
-      </c>
-      <c r="I269" s="4">
-        <v>2.8090000000000002</v>
+      <c r="H269" s="5">
+        <v>1538</v>
+      </c>
+      <c r="I269" s="5">
+        <v>2809</v>
       </c>
       <c r="J269" s="4">
         <v>173</v>
@@ -11653,8 +11667,8 @@
       <c r="L269" s="4">
         <v>32</v>
       </c>
-      <c r="M269" s="5">
-        <v>5.734</v>
+      <c r="M269" s="6">
+        <v>5734</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11679,11 +11693,11 @@
       <c r="G270" s="4">
         <v>493</v>
       </c>
-      <c r="H270" s="4">
-        <v>2.1480000000000001</v>
-      </c>
-      <c r="I270" s="4">
-        <v>2.1920000000000002</v>
+      <c r="H270" s="5">
+        <v>2148</v>
+      </c>
+      <c r="I270" s="5">
+        <v>2192</v>
       </c>
       <c r="J270" s="4">
         <v>239</v>
@@ -11694,8 +11708,8 @@
       <c r="L270" s="4">
         <v>44</v>
       </c>
-      <c r="M270" s="5">
-        <v>5.6849999999999996</v>
+      <c r="M270" s="6">
+        <v>5685</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11718,11 +11732,11 @@
       <c r="G271" s="4">
         <v>482</v>
       </c>
-      <c r="H271" s="4">
-        <v>1.488</v>
-      </c>
-      <c r="I271" s="4">
-        <v>2.3159999999999998</v>
+      <c r="H271" s="5">
+        <v>1488</v>
+      </c>
+      <c r="I271" s="5">
+        <v>2316</v>
       </c>
       <c r="J271" s="4">
         <v>247</v>
@@ -11733,8 +11747,8 @@
       <c r="L271" s="4">
         <v>52</v>
       </c>
-      <c r="M271" s="5">
-        <v>5.5679999999999996</v>
+      <c r="M271" s="6">
+        <v>5568</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11759,11 +11773,11 @@
       <c r="G272" s="4">
         <v>532</v>
       </c>
-      <c r="H272" s="4">
-        <v>2.145</v>
-      </c>
-      <c r="I272" s="4">
-        <v>1.8160000000000001</v>
+      <c r="H272" s="5">
+        <v>2145</v>
+      </c>
+      <c r="I272" s="5">
+        <v>1816</v>
       </c>
       <c r="J272" s="4">
         <v>265</v>
@@ -11774,8 +11788,8 @@
       <c r="L272" s="4">
         <v>31</v>
       </c>
-      <c r="M272" s="5">
-        <v>5.7439999999999998</v>
+      <c r="M272" s="6">
+        <v>5744</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11798,11 +11812,11 @@
       <c r="G273" s="4">
         <v>590</v>
       </c>
-      <c r="H273" s="4">
-        <v>1.623</v>
-      </c>
-      <c r="I273" s="4">
-        <v>1.4950000000000001</v>
+      <c r="H273" s="5">
+        <v>1623</v>
+      </c>
+      <c r="I273" s="5">
+        <v>1495</v>
       </c>
       <c r="J273" s="4">
         <v>221</v>
@@ -11813,8 +11827,8 @@
       <c r="L273" s="4">
         <v>35</v>
       </c>
-      <c r="M273" s="5">
-        <v>5.5679999999999996</v>
+      <c r="M273" s="6">
+        <v>5568</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11839,11 +11853,11 @@
       <c r="G274" s="4">
         <v>995</v>
       </c>
-      <c r="H274" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="I274" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H274" s="5">
+        <v>2350</v>
+      </c>
+      <c r="I274" s="5">
+        <v>1253</v>
       </c>
       <c r="J274" s="4">
         <v>243</v>
@@ -11854,8 +11868,8 @@
       <c r="L274" s="4">
         <v>32</v>
       </c>
-      <c r="M274" s="5">
-        <v>5.83</v>
+      <c r="M274" s="6">
+        <v>5830</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11869,8 +11883,8 @@
       <c r="D275" s="4">
         <v>40</v>
       </c>
-      <c r="E275" s="4">
-        <v>1.181</v>
+      <c r="E275" s="5">
+        <v>1181</v>
       </c>
       <c r="F275" s="4">
         <v>582</v>
@@ -11878,11 +11892,11 @@
       <c r="G275" s="4">
         <v>908</v>
       </c>
-      <c r="H275" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="I275" s="4">
-        <v>1.0640000000000001</v>
+      <c r="H275" s="5">
+        <v>1540</v>
+      </c>
+      <c r="I275" s="5">
+        <v>1064</v>
       </c>
       <c r="J275" s="4">
         <v>160</v>
@@ -11893,8 +11907,8 @@
       <c r="L275" s="4">
         <v>27</v>
       </c>
-      <c r="M275" s="5">
-        <v>5.5609999999999999</v>
+      <c r="M275" s="6">
+        <v>5561</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11919,8 +11933,8 @@
       <c r="G276" s="4">
         <v>862</v>
       </c>
-      <c r="H276" s="4">
-        <v>1.8380000000000001</v>
+      <c r="H276" s="5">
+        <v>1838</v>
       </c>
       <c r="I276" s="4">
         <v>883</v>
@@ -11934,8 +11948,8 @@
       <c r="L276" s="4">
         <v>26</v>
       </c>
-      <c r="M276" s="5">
-        <v>5.0620000000000003</v>
+      <c r="M276" s="6">
+        <v>5062</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11949,8 +11963,8 @@
       <c r="D277" s="4">
         <v>46</v>
       </c>
-      <c r="E277" s="4">
-        <v>1.2490000000000001</v>
+      <c r="E277" s="5">
+        <v>1249</v>
       </c>
       <c r="F277" s="4">
         <v>612</v>
@@ -11958,8 +11972,8 @@
       <c r="G277" s="4">
         <v>783</v>
       </c>
-      <c r="H277" s="4">
-        <v>1.121</v>
+      <c r="H277" s="5">
+        <v>1121</v>
       </c>
       <c r="I277" s="4">
         <v>687</v>
@@ -11973,8 +11987,8 @@
       <c r="L277" s="4">
         <v>35</v>
       </c>
-      <c r="M277" s="5">
-        <v>4.6920000000000002</v>
+      <c r="M277" s="6">
+        <v>4692</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -11999,8 +12013,8 @@
       <c r="G278" s="4">
         <v>858</v>
       </c>
-      <c r="H278" s="4">
-        <v>1.337</v>
+      <c r="H278" s="5">
+        <v>1337</v>
       </c>
       <c r="I278" s="4">
         <v>604</v>
@@ -12014,8 +12028,8 @@
       <c r="L278" s="4">
         <v>33</v>
       </c>
-      <c r="M278" s="5">
-        <v>4.1660000000000004</v>
+      <c r="M278" s="6">
+        <v>4166</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12029,8 +12043,8 @@
       <c r="D279" s="4">
         <v>70</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.4339999999999999</v>
+      <c r="E279" s="5">
+        <v>1434</v>
       </c>
       <c r="F279" s="4">
         <v>604</v>
@@ -12053,8 +12067,8 @@
       <c r="L279" s="4">
         <v>35</v>
       </c>
-      <c r="M279" s="5">
-        <v>3.9740000000000002</v>
+      <c r="M279" s="6">
+        <v>3974</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12094,8 +12108,8 @@
       <c r="L280" s="4">
         <v>24</v>
       </c>
-      <c r="M280" s="5">
-        <v>3.51</v>
+      <c r="M280" s="6">
+        <v>3510</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12109,8 +12123,8 @@
       <c r="D281" s="4">
         <v>104</v>
       </c>
-      <c r="E281" s="4">
-        <v>1.615</v>
+      <c r="E281" s="5">
+        <v>1615</v>
       </c>
       <c r="F281" s="4">
         <v>422</v>
@@ -12133,8 +12147,8 @@
       <c r="L281" s="4">
         <v>36</v>
       </c>
-      <c r="M281" s="5">
-        <v>3.411</v>
+      <c r="M281" s="6">
+        <v>3411</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12174,8 +12188,8 @@
       <c r="L282" s="4">
         <v>26</v>
       </c>
-      <c r="M282" s="5">
-        <v>2.774</v>
+      <c r="M282" s="6">
+        <v>2774</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12189,8 +12203,8 @@
       <c r="D283" s="4">
         <v>198</v>
       </c>
-      <c r="E283" s="4">
-        <v>1.5469999999999999</v>
+      <c r="E283" s="5">
+        <v>1547</v>
       </c>
       <c r="F283" s="4">
         <v>215</v>
@@ -12213,8 +12227,8 @@
       <c r="L283" s="4">
         <v>29</v>
       </c>
-      <c r="M283" s="5">
-        <v>2.8260000000000001</v>
+      <c r="M283" s="6">
+        <v>2826</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12230,8 +12244,8 @@
       <c r="D284" s="4">
         <v>22</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.0009999999999999</v>
+      <c r="E284" s="5">
+        <v>1001</v>
       </c>
       <c r="F284" s="4">
         <v>136</v>
@@ -12254,8 +12268,8 @@
       <c r="L284" s="4">
         <v>26</v>
       </c>
-      <c r="M284" s="5">
-        <v>2.093</v>
+      <c r="M284" s="6">
+        <v>2093</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12269,8 +12283,8 @@
       <c r="D285" s="4">
         <v>277</v>
       </c>
-      <c r="E285" s="4">
-        <v>1.365</v>
+      <c r="E285" s="5">
+        <v>1365</v>
       </c>
       <c r="F285" s="4">
         <v>84</v>
@@ -12293,8 +12307,8 @@
       <c r="L285" s="4">
         <v>19</v>
       </c>
-      <c r="M285" s="5">
-        <v>2.359</v>
+      <c r="M285" s="6">
+        <v>2359</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12334,8 +12348,8 @@
       <c r="L286" s="4">
         <v>16</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.407</v>
+      <c r="M286" s="6">
+        <v>1407</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12373,8 +12387,8 @@
       <c r="L287" s="4">
         <v>32</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.599</v>
+      <c r="M287" s="6">
+        <v>1599</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12414,8 +12428,8 @@
       <c r="L288" s="4">
         <v>27</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.472</v>
+      <c r="M288" s="6">
+        <v>1472</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12453,54 +12467,54 @@
       <c r="L289" s="4">
         <v>26</v>
       </c>
-      <c r="M289" s="5">
-        <v>2.0369999999999999</v>
+      <c r="M289" s="6">
+        <v>2037</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="D290" s="5">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="E290" s="5">
-        <v>16.904</v>
-      </c>
-      <c r="F290" s="5">
-        <v>8.4039999999999999</v>
-      </c>
-      <c r="G290" s="5">
-        <v>14.214</v>
-      </c>
-      <c r="H290" s="5">
-        <v>32.079000000000001</v>
-      </c>
-      <c r="I290" s="5">
-        <v>21.701000000000001</v>
-      </c>
-      <c r="J290" s="5">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="K290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>1614</v>
+      </c>
+      <c r="D290" s="6">
+        <v>1965</v>
+      </c>
+      <c r="E290" s="6">
+        <v>16904</v>
+      </c>
+      <c r="F290" s="6">
+        <v>8404</v>
+      </c>
+      <c r="G290" s="6">
+        <v>14214</v>
+      </c>
+      <c r="H290" s="6">
+        <v>32079</v>
+      </c>
+      <c r="I290" s="6">
+        <v>21701</v>
+      </c>
+      <c r="J290" s="6">
+        <v>2283</v>
+      </c>
+      <c r="K290" s="8">
         <v>289</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>766</v>
       </c>
-      <c r="M290" s="5">
-        <v>100.21899999999999</v>
+      <c r="M290" s="6">
+        <v>100219</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12554,14 +12568,14 @@
       <c r="F292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="4">
-        <v>2.2330000000000001</v>
-      </c>
-      <c r="H292" s="4">
-        <v>5.7549999999999999</v>
-      </c>
-      <c r="I292" s="4">
-        <v>1.35</v>
+      <c r="G292" s="5">
+        <v>2233</v>
+      </c>
+      <c r="H292" s="5">
+        <v>5755</v>
+      </c>
+      <c r="I292" s="5">
+        <v>1350</v>
       </c>
       <c r="J292" s="4">
         <v>5</v>
@@ -12572,8 +12586,8 @@
       <c r="L292" s="4">
         <v>93</v>
       </c>
-      <c r="M292" s="5">
-        <v>9.5120000000000005</v>
+      <c r="M292" s="6">
+        <v>9512</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12593,14 +12607,14 @@
       <c r="F293" s="4">
         <v>2</v>
       </c>
-      <c r="G293" s="4">
-        <v>1.972</v>
-      </c>
-      <c r="H293" s="4">
-        <v>5.2569999999999997</v>
-      </c>
-      <c r="I293" s="4">
-        <v>2.0099999999999998</v>
+      <c r="G293" s="5">
+        <v>1972</v>
+      </c>
+      <c r="H293" s="5">
+        <v>5257</v>
+      </c>
+      <c r="I293" s="5">
+        <v>2010</v>
       </c>
       <c r="J293" s="4">
         <v>13</v>
@@ -12611,8 +12625,8 @@
       <c r="L293" s="4">
         <v>36</v>
       </c>
-      <c r="M293" s="5">
-        <v>9.4369999999999994</v>
+      <c r="M293" s="6">
+        <v>9437</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12634,14 +12648,14 @@
       <c r="F294" s="4">
         <v>84</v>
       </c>
-      <c r="G294" s="4">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="H294" s="4">
-        <v>2.444</v>
-      </c>
-      <c r="I294" s="4">
-        <v>2.7690000000000001</v>
+      <c r="G294" s="5">
+        <v>1487</v>
+      </c>
+      <c r="H294" s="5">
+        <v>2444</v>
+      </c>
+      <c r="I294" s="5">
+        <v>2769</v>
       </c>
       <c r="J294" s="4">
         <v>135</v>
@@ -12652,8 +12666,8 @@
       <c r="L294" s="4">
         <v>49</v>
       </c>
-      <c r="M294" s="5">
-        <v>7.0759999999999996</v>
+      <c r="M294" s="6">
+        <v>7076</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12673,14 +12687,14 @@
       <c r="F295" s="4">
         <v>117</v>
       </c>
-      <c r="G295" s="4">
-        <v>1.3069999999999999</v>
-      </c>
-      <c r="H295" s="4">
-        <v>1.655</v>
-      </c>
-      <c r="I295" s="4">
-        <v>3.1840000000000002</v>
+      <c r="G295" s="5">
+        <v>1307</v>
+      </c>
+      <c r="H295" s="5">
+        <v>1655</v>
+      </c>
+      <c r="I295" s="5">
+        <v>3184</v>
       </c>
       <c r="J295" s="4">
         <v>197</v>
@@ -12691,8 +12705,8 @@
       <c r="L295" s="4">
         <v>56</v>
       </c>
-      <c r="M295" s="5">
-        <v>6.9690000000000003</v>
+      <c r="M295" s="6">
+        <v>6969</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12717,11 +12731,11 @@
       <c r="G296" s="4">
         <v>714</v>
       </c>
-      <c r="H296" s="4">
-        <v>2.419</v>
-      </c>
-      <c r="I296" s="4">
-        <v>2.7469999999999999</v>
+      <c r="H296" s="5">
+        <v>2419</v>
+      </c>
+      <c r="I296" s="5">
+        <v>2747</v>
       </c>
       <c r="J296" s="4">
         <v>255</v>
@@ -12732,8 +12746,8 @@
       <c r="L296" s="4">
         <v>42</v>
       </c>
-      <c r="M296" s="5">
-        <v>7.1219999999999999</v>
+      <c r="M296" s="6">
+        <v>7122</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12750,17 +12764,17 @@
       <c r="E297" s="4">
         <v>246</v>
       </c>
-      <c r="F297" s="4">
-        <v>1.05</v>
+      <c r="F297" s="5">
+        <v>1050</v>
       </c>
       <c r="G297" s="4">
         <v>623</v>
       </c>
-      <c r="H297" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="I297" s="4">
-        <v>2.7839999999999998</v>
+      <c r="H297" s="5">
+        <v>1730</v>
+      </c>
+      <c r="I297" s="5">
+        <v>2784</v>
       </c>
       <c r="J297" s="4">
         <v>263</v>
@@ -12771,8 +12785,8 @@
       <c r="L297" s="4">
         <v>63</v>
       </c>
-      <c r="M297" s="5">
-        <v>7.1589999999999998</v>
+      <c r="M297" s="6">
+        <v>7159</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12797,11 +12811,11 @@
       <c r="G298" s="4">
         <v>670</v>
       </c>
-      <c r="H298" s="4">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="I298" s="4">
-        <v>2.2650000000000001</v>
+      <c r="H298" s="5">
+        <v>2733</v>
+      </c>
+      <c r="I298" s="5">
+        <v>2265</v>
       </c>
       <c r="J298" s="4">
         <v>312</v>
@@ -12812,8 +12826,8 @@
       <c r="L298" s="4">
         <v>51</v>
       </c>
-      <c r="M298" s="5">
-        <v>7.2949999999999999</v>
+      <c r="M298" s="6">
+        <v>7295</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12836,11 +12850,11 @@
       <c r="G299" s="4">
         <v>655</v>
       </c>
-      <c r="H299" s="4">
-        <v>2.0019999999999998</v>
-      </c>
-      <c r="I299" s="4">
-        <v>1.988</v>
+      <c r="H299" s="5">
+        <v>2002</v>
+      </c>
+      <c r="I299" s="5">
+        <v>1988</v>
       </c>
       <c r="J299" s="4">
         <v>239</v>
@@ -12851,8 +12865,8 @@
       <c r="L299" s="4">
         <v>78</v>
       </c>
-      <c r="M299" s="5">
-        <v>7.1319999999999997</v>
+      <c r="M299" s="6">
+        <v>7132</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12874,14 +12888,14 @@
       <c r="F300" s="4">
         <v>779</v>
       </c>
-      <c r="G300" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="H300" s="4">
-        <v>2.9489999999999998</v>
-      </c>
-      <c r="I300" s="4">
-        <v>1.6759999999999999</v>
+      <c r="G300" s="5">
+        <v>1030</v>
+      </c>
+      <c r="H300" s="5">
+        <v>2949</v>
+      </c>
+      <c r="I300" s="5">
+        <v>1676</v>
       </c>
       <c r="J300" s="4">
         <v>245</v>
@@ -12892,8 +12906,8 @@
       <c r="L300" s="4">
         <v>47</v>
       </c>
-      <c r="M300" s="5">
-        <v>7.3630000000000004</v>
+      <c r="M300" s="6">
+        <v>7363</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12907,20 +12921,20 @@
       <c r="D301" s="4">
         <v>148</v>
       </c>
-      <c r="E301" s="4">
-        <v>1.4830000000000001</v>
+      <c r="E301" s="5">
+        <v>1483</v>
       </c>
       <c r="F301" s="4">
         <v>703</v>
       </c>
-      <c r="G301" s="4">
-        <v>1.097</v>
-      </c>
-      <c r="H301" s="4">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="I301" s="4">
-        <v>1.296</v>
+      <c r="G301" s="5">
+        <v>1097</v>
+      </c>
+      <c r="H301" s="5">
+        <v>2116</v>
+      </c>
+      <c r="I301" s="5">
+        <v>1296</v>
       </c>
       <c r="J301" s="4">
         <v>174</v>
@@ -12931,8 +12945,8 @@
       <c r="L301" s="4">
         <v>52</v>
       </c>
-      <c r="M301" s="5">
-        <v>7.1550000000000002</v>
+      <c r="M301" s="6">
+        <v>7155</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12957,11 +12971,11 @@
       <c r="G302" s="4">
         <v>941</v>
       </c>
-      <c r="H302" s="4">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="I302" s="4">
-        <v>1.1359999999999999</v>
+      <c r="H302" s="5">
+        <v>2459</v>
+      </c>
+      <c r="I302" s="5">
+        <v>1136</v>
       </c>
       <c r="J302" s="4">
         <v>148</v>
@@ -12972,8 +12986,8 @@
       <c r="L302" s="4">
         <v>37</v>
       </c>
-      <c r="M302" s="5">
-        <v>6.2380000000000004</v>
+      <c r="M302" s="6">
+        <v>6238</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -12987,8 +13001,8 @@
       <c r="D303" s="4">
         <v>152</v>
       </c>
-      <c r="E303" s="4">
-        <v>1.5649999999999999</v>
+      <c r="E303" s="5">
+        <v>1565</v>
       </c>
       <c r="F303" s="4">
         <v>800</v>
@@ -12996,8 +13010,8 @@
       <c r="G303" s="4">
         <v>938</v>
       </c>
-      <c r="H303" s="4">
-        <v>1.5069999999999999</v>
+      <c r="H303" s="5">
+        <v>1507</v>
       </c>
       <c r="I303" s="4">
         <v>678</v>
@@ -13011,8 +13025,8 @@
       <c r="L303" s="4">
         <v>43</v>
       </c>
-      <c r="M303" s="5">
-        <v>5.8490000000000002</v>
+      <c r="M303" s="6">
+        <v>5849</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13034,11 +13048,11 @@
       <c r="F304" s="4">
         <v>803</v>
       </c>
-      <c r="G304" s="4">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="H304" s="4">
-        <v>1.7070000000000001</v>
+      <c r="G304" s="5">
+        <v>1017</v>
+      </c>
+      <c r="H304" s="5">
+        <v>1707</v>
       </c>
       <c r="I304" s="4">
         <v>762</v>
@@ -13052,8 +13066,8 @@
       <c r="L304" s="4">
         <v>39</v>
       </c>
-      <c r="M304" s="5">
-        <v>5.141</v>
+      <c r="M304" s="6">
+        <v>5141</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13067,8 +13081,8 @@
       <c r="D305" s="4">
         <v>182</v>
       </c>
-      <c r="E305" s="4">
-        <v>1.6930000000000001</v>
+      <c r="E305" s="5">
+        <v>1693</v>
       </c>
       <c r="F305" s="4">
         <v>736</v>
@@ -13076,8 +13090,8 @@
       <c r="G305" s="4">
         <v>838</v>
       </c>
-      <c r="H305" s="4">
-        <v>1.0169999999999999</v>
+      <c r="H305" s="5">
+        <v>1017</v>
       </c>
       <c r="I305" s="4">
         <v>375</v>
@@ -13091,8 +13105,8 @@
       <c r="L305" s="4">
         <v>42</v>
       </c>
-      <c r="M305" s="5">
-        <v>5.0259999999999998</v>
+      <c r="M305" s="6">
+        <v>5026</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13117,8 +13131,8 @@
       <c r="G306" s="4">
         <v>921</v>
       </c>
-      <c r="H306" s="4">
-        <v>1.2809999999999999</v>
+      <c r="H306" s="5">
+        <v>1281</v>
       </c>
       <c r="I306" s="4">
         <v>487</v>
@@ -13132,8 +13146,8 @@
       <c r="L306" s="4">
         <v>43</v>
       </c>
-      <c r="M306" s="5">
-        <v>4.37</v>
+      <c r="M306" s="6">
+        <v>4370</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13147,8 +13161,8 @@
       <c r="D307" s="4">
         <v>229</v>
       </c>
-      <c r="E307" s="4">
-        <v>1.82</v>
+      <c r="E307" s="5">
+        <v>1820</v>
       </c>
       <c r="F307" s="4">
         <v>515</v>
@@ -13171,8 +13185,8 @@
       <c r="L307" s="4">
         <v>51</v>
       </c>
-      <c r="M307" s="5">
-        <v>4.3099999999999996</v>
+      <c r="M307" s="6">
+        <v>4310</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13188,8 +13202,8 @@
       <c r="D308" s="4">
         <v>43</v>
       </c>
-      <c r="E308" s="4">
-        <v>1.03</v>
+      <c r="E308" s="5">
+        <v>1030</v>
       </c>
       <c r="F308" s="4">
         <v>411</v>
@@ -13197,8 +13211,8 @@
       <c r="G308" s="4">
         <v>615</v>
       </c>
-      <c r="H308" s="4">
-        <v>1.036</v>
+      <c r="H308" s="5">
+        <v>1036</v>
       </c>
       <c r="I308" s="4">
         <v>345</v>
@@ -13212,8 +13226,8 @@
       <c r="L308" s="4">
         <v>43</v>
       </c>
-      <c r="M308" s="5">
-        <v>3.5739999999999998</v>
+      <c r="M308" s="6">
+        <v>3574</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13227,8 +13241,8 @@
       <c r="D309" s="4">
         <v>294</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.8120000000000001</v>
+      <c r="E309" s="5">
+        <v>1812</v>
       </c>
       <c r="F309" s="4">
         <v>268</v>
@@ -13251,8 +13265,8 @@
       <c r="L309" s="4">
         <v>44</v>
       </c>
-      <c r="M309" s="5">
-        <v>3.5950000000000002</v>
+      <c r="M309" s="6">
+        <v>3595</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13268,8 +13282,8 @@
       <c r="D310" s="4">
         <v>56</v>
       </c>
-      <c r="E310" s="4">
-        <v>1.1559999999999999</v>
+      <c r="E310" s="5">
+        <v>1156</v>
       </c>
       <c r="F310" s="4">
         <v>196</v>
@@ -13292,8 +13306,8 @@
       <c r="L310" s="4">
         <v>46</v>
       </c>
-      <c r="M310" s="5">
-        <v>2.7250000000000001</v>
+      <c r="M310" s="6">
+        <v>2725</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13307,8 +13321,8 @@
       <c r="D311" s="4">
         <v>362</v>
       </c>
-      <c r="E311" s="4">
-        <v>1.68</v>
+      <c r="E311" s="5">
+        <v>1680</v>
       </c>
       <c r="F311" s="4">
         <v>113</v>
@@ -13331,8 +13345,8 @@
       <c r="L311" s="4">
         <v>40</v>
       </c>
-      <c r="M311" s="5">
-        <v>3.1190000000000002</v>
+      <c r="M311" s="6">
+        <v>3119</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13372,8 +13386,8 @@
       <c r="L312" s="4">
         <v>18</v>
       </c>
-      <c r="M312" s="5">
-        <v>1.873</v>
+      <c r="M312" s="6">
+        <v>1873</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13387,8 +13401,8 @@
       <c r="D313" s="4">
         <v>363</v>
       </c>
-      <c r="E313" s="4">
-        <v>1.147</v>
+      <c r="E313" s="5">
+        <v>1147</v>
       </c>
       <c r="F313" s="4">
         <v>35</v>
@@ -13411,8 +13425,8 @@
       <c r="L313" s="4">
         <v>40</v>
       </c>
-      <c r="M313" s="5">
-        <v>2.2480000000000002</v>
+      <c r="M313" s="6">
+        <v>2248</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13428,8 +13442,8 @@
       <c r="D314" s="4">
         <v>212</v>
       </c>
-      <c r="E314" s="4">
-        <v>1.0649999999999999</v>
+      <c r="E314" s="5">
+        <v>1065</v>
       </c>
       <c r="F314" s="4">
         <v>27</v>
@@ -13452,8 +13466,8 @@
       <c r="L314" s="4">
         <v>43</v>
       </c>
-      <c r="M314" s="5">
-        <v>2.044</v>
+      <c r="M314" s="6">
+        <v>2044</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13467,8 +13481,8 @@
       <c r="D315" s="4">
         <v>697</v>
       </c>
-      <c r="E315" s="4">
-        <v>1.147</v>
+      <c r="E315" s="5">
+        <v>1147</v>
       </c>
       <c r="F315" s="4">
         <v>19</v>
@@ -13491,51 +13505,66 @@
       <c r="L315" s="4">
         <v>51</v>
       </c>
-      <c r="M315" s="5">
-        <v>2.8919999999999999</v>
+      <c r="M315" s="6">
+        <v>2892</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>2.6269999999999998</v>
-      </c>
-      <c r="D316" s="5">
-        <v>3.86</v>
-      </c>
-      <c r="E316" s="5">
-        <v>21.23</v>
-      </c>
-      <c r="F316" s="5">
-        <v>10.872999999999999</v>
-      </c>
-      <c r="G316" s="5">
-        <v>19.198</v>
-      </c>
-      <c r="H316" s="5">
-        <v>40.895000000000003</v>
-      </c>
-      <c r="I316" s="5">
-        <v>26.916</v>
-      </c>
-      <c r="J316" s="5">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="K316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
+        <v>2627</v>
+      </c>
+      <c r="D316" s="6">
+        <v>3860</v>
+      </c>
+      <c r="E316" s="6">
+        <v>21230</v>
+      </c>
+      <c r="F316" s="6">
+        <v>10873</v>
+      </c>
+      <c r="G316" s="6">
+        <v>19198</v>
+      </c>
+      <c r="H316" s="6">
+        <v>40895</v>
+      </c>
+      <c r="I316" s="6">
+        <v>26916</v>
+      </c>
+      <c r="J316" s="6">
+        <v>2324</v>
+      </c>
+      <c r="K316" s="8">
         <v>154</v>
       </c>
-      <c r="L316" s="5">
-        <v>1.147</v>
-      </c>
-      <c r="M316" s="5">
-        <v>129.22399999999999</v>
+      <c r="L316" s="6">
+        <v>1147</v>
+      </c>
+      <c r="M316" s="6">
+        <v>129224</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -13544,11 +13573,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
